--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11904319099262</v>
+        <v>21.1190431909926</v>
       </c>
       <c r="C2">
-        <v>20.38419772965566</v>
+        <v>20.38419772965586</v>
       </c>
       <c r="D2">
-        <v>7.971940116977954</v>
+        <v>7.971940116977937</v>
       </c>
       <c r="E2">
-        <v>9.29281579546331</v>
+        <v>9.292815795463332</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.10286197890004</v>
+        <v>36.10286197890013</v>
       </c>
       <c r="H2">
-        <v>29.31478074511015</v>
+        <v>29.31478074511025</v>
       </c>
       <c r="I2">
-        <v>5.103287482517938</v>
+        <v>5.103287482517931</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.94648233275754</v>
+        <v>17.94648233275757</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>19.58253233951321</v>
       </c>
       <c r="C3">
-        <v>18.87123922027315</v>
+        <v>18.87123922027294</v>
       </c>
       <c r="D3">
-        <v>7.511831912408599</v>
+        <v>7.511831912408609</v>
       </c>
       <c r="E3">
-        <v>8.897572295789672</v>
+        <v>8.897572295789743</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.23489294998456</v>
+        <v>34.23489294998441</v>
       </c>
       <c r="H3">
-        <v>28.04318531169435</v>
+        <v>28.04318531169424</v>
       </c>
       <c r="I3">
-        <v>5.08753807445383</v>
+        <v>5.087538074453836</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.6510550480021</v>
+        <v>16.65105504800205</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59460604635077</v>
+        <v>18.59460604635075</v>
       </c>
       <c r="C4">
-        <v>17.90142576993991</v>
+        <v>17.90142576993975</v>
       </c>
       <c r="D4">
-        <v>7.224431130021871</v>
+        <v>7.224431130021804</v>
       </c>
       <c r="E4">
-        <v>8.656587921277335</v>
+        <v>8.656587921277231</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>33.07918541010893</v>
       </c>
       <c r="H4">
-        <v>27.26546541581173</v>
+        <v>27.26546541581175</v>
       </c>
       <c r="I4">
-        <v>5.080628357006437</v>
+        <v>5.080628357006418</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.8193093057047</v>
+        <v>15.81930930570467</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18054424516654</v>
+        <v>18.18054424516646</v>
       </c>
       <c r="C5">
-        <v>17.49565426369335</v>
+        <v>17.49565426369334</v>
       </c>
       <c r="D5">
-        <v>7.106144211742316</v>
+        <v>7.10614421174226</v>
       </c>
       <c r="E5">
-        <v>8.558850255589533</v>
+        <v>8.558850255589459</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.60622335064266</v>
+        <v>32.60622335064274</v>
       </c>
       <c r="H5">
-        <v>26.94938950581672</v>
+        <v>26.94938950581681</v>
       </c>
       <c r="I5">
-        <v>5.078468317735742</v>
+        <v>5.078468317735711</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.47097387571153</v>
+        <v>15.47097387571151</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11108878770038</v>
+        <v>18.11108878770023</v>
       </c>
       <c r="C6">
-        <v>17.42763022498553</v>
+        <v>17.42763022498539</v>
       </c>
       <c r="D6">
-        <v>7.086434616474964</v>
+        <v>7.086434616474984</v>
       </c>
       <c r="E6">
-        <v>8.54265060708579</v>
+        <v>8.54265060708572</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.52757567295362</v>
+        <v>32.52757567295382</v>
       </c>
       <c r="H6">
-        <v>26.89696044032966</v>
+        <v>26.89696044032984</v>
       </c>
       <c r="I6">
-        <v>5.07814818096487</v>
+        <v>5.078148180964699</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.41255881920091</v>
+        <v>15.41255881920079</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58906867824449</v>
+        <v>18.58906867824436</v>
       </c>
       <c r="C7">
-        <v>17.89599653183225</v>
+        <v>17.89599653183205</v>
       </c>
       <c r="D7">
-        <v>7.222840497783807</v>
+        <v>7.222840497783753</v>
       </c>
       <c r="E7">
-        <v>8.655267846913702</v>
+        <v>8.655267846913674</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.07281462888166</v>
+        <v>33.07281462888174</v>
       </c>
       <c r="H7">
-        <v>27.26119910039472</v>
+        <v>27.26119910039481</v>
       </c>
       <c r="I7">
-        <v>5.080596619588949</v>
+        <v>5.080596619588992</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.81464987881161</v>
+        <v>15.81464987881145</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59831199487058</v>
+        <v>20.59831199487064</v>
       </c>
       <c r="C8">
-        <v>19.87082124063771</v>
+        <v>19.87082124063797</v>
       </c>
       <c r="D8">
-        <v>7.814336570672571</v>
+        <v>7.814336570672579</v>
       </c>
       <c r="E8">
-        <v>9.156200323840178</v>
+        <v>9.156200323840267</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.46068890224674</v>
+        <v>35.46068890224671</v>
       </c>
       <c r="H8">
-        <v>28.87573315917699</v>
+        <v>28.87573315917696</v>
       </c>
       <c r="I8">
-        <v>5.097260059763784</v>
+        <v>5.097260059763895</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.50720376324549</v>
+        <v>17.50720376324554</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19963197074465</v>
+        <v>24.19963197074462</v>
       </c>
       <c r="C9">
-        <v>23.43451527777346</v>
+        <v>23.43451527777358</v>
       </c>
       <c r="D9">
-        <v>8.934579431975795</v>
+        <v>8.934579431975811</v>
       </c>
       <c r="E9">
-        <v>10.15157113604178</v>
+        <v>10.15157113604179</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.07184904986143</v>
+        <v>40.07184904986142</v>
       </c>
       <c r="H9">
         <v>32.0662716166694</v>
       </c>
       <c r="I9">
-        <v>5.153751554248966</v>
+        <v>5.153751554248929</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.5506608411533</v>
+        <v>20.55066084115334</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.66178489596496</v>
+        <v>26.66178489596485</v>
       </c>
       <c r="C10">
-        <v>25.88921852339823</v>
+        <v>25.88921852339808</v>
       </c>
       <c r="D10">
-        <v>9.735146720187451</v>
+        <v>9.735146720187352</v>
       </c>
       <c r="E10">
-        <v>10.89258785369809</v>
+        <v>10.89258785369806</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.42500704310385</v>
+        <v>43.42500704310368</v>
       </c>
       <c r="H10">
-        <v>34.43291923273559</v>
+        <v>34.43291923273546</v>
       </c>
       <c r="I10">
-        <v>5.212773622155262</v>
+        <v>5.212773622155241</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.63906320668801</v>
+        <v>22.63906320668789</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,22 +760,22 @@
         <v>26.97719352581237</v>
       </c>
       <c r="D11">
-        <v>10.14276633035018</v>
+        <v>10.14276633035014</v>
       </c>
       <c r="E11">
-        <v>11.23296768342823</v>
+        <v>11.23296768342824</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.9484297148526</v>
+        <v>44.94842971485267</v>
       </c>
       <c r="H11">
-        <v>35.51854418553693</v>
+        <v>35.518544185537</v>
       </c>
       <c r="I11">
-        <v>5.244217526347458</v>
+        <v>5.244217526347474</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.56255554949882</v>
+        <v>23.56255554949876</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15520454979456</v>
+        <v>28.15520454979444</v>
       </c>
       <c r="C12">
-        <v>27.38574657284926</v>
+        <v>27.38574657284925</v>
       </c>
       <c r="D12">
-        <v>10.29579765284377</v>
+        <v>10.29579765284368</v>
       </c>
       <c r="E12">
-        <v>11.36249283953078</v>
+        <v>11.36249283953077</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.52576198924663</v>
+        <v>45.52576198924645</v>
       </c>
       <c r="H12">
-        <v>35.93147423825907</v>
+        <v>35.93147423825893</v>
       </c>
       <c r="I12">
-        <v>5.256863738728834</v>
+        <v>5.256863738728787</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.90899445630245</v>
+        <v>23.90899445630236</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06770273256025</v>
+        <v>28.06770273256038</v>
       </c>
       <c r="C13">
-        <v>27.29789804818877</v>
+        <v>27.29789804818902</v>
       </c>
       <c r="D13">
-        <v>10.26289435050618</v>
+        <v>10.26289435050619</v>
       </c>
       <c r="E13">
-        <v>11.33456608218188</v>
+        <v>11.33456608218193</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.40138913136541</v>
+        <v>45.40138913136557</v>
       </c>
       <c r="H13">
-        <v>35.84245067947823</v>
+        <v>35.84245067947835</v>
       </c>
       <c r="I13">
-        <v>5.254105888976876</v>
+        <v>5.254105888976923</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.83451818093268</v>
+        <v>23.8345181809328</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78166347342347</v>
+        <v>27.7816634734235</v>
       </c>
       <c r="C14">
-        <v>27.01086998392995</v>
+        <v>27.01086998392993</v>
       </c>
       <c r="D14">
-        <v>10.15538136971289</v>
+        <v>10.15538136971284</v>
       </c>
       <c r="E14">
-        <v>11.2436100419793</v>
+        <v>11.24361004197932</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.99591322664044</v>
+        <v>44.99591322664045</v>
       </c>
       <c r="H14">
-        <v>35.55247587783076</v>
+        <v>35.55247587783077</v>
       </c>
       <c r="I14">
-        <v>5.245242629437918</v>
+        <v>5.245242629437901</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.59111928597106</v>
+        <v>23.59111928597105</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60592339930068</v>
+        <v>27.60592339930069</v>
       </c>
       <c r="C15">
-        <v>26.83463157613975</v>
+        <v>26.8346315761397</v>
       </c>
       <c r="D15">
-        <v>10.08936167543045</v>
+        <v>10.08936167543047</v>
       </c>
       <c r="E15">
         <v>11.18798465895488</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.74763124060771</v>
+        <v>44.74763124060767</v>
       </c>
       <c r="H15">
-        <v>35.37511475111965</v>
+        <v>35.37511475111961</v>
       </c>
       <c r="I15">
-        <v>5.239912427468614</v>
+        <v>5.239912427468638</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.441622817921</v>
+        <v>23.44162281792102</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.59016305532798</v>
+        <v>26.59016305532781</v>
       </c>
       <c r="C16">
-        <v>25.81759540711371</v>
+        <v>25.81759540711358</v>
       </c>
       <c r="D16">
-        <v>9.71144600587375</v>
+        <v>9.711446005873739</v>
       </c>
       <c r="E16">
-        <v>10.87042159574119</v>
+        <v>10.87042159574116</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.32546510546402</v>
+        <v>43.32546510546374</v>
       </c>
       <c r="H16">
-        <v>34.36219393666966</v>
+        <v>34.36219393666946</v>
       </c>
       <c r="I16">
-        <v>5.210817557701176</v>
+        <v>5.210817557701114</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.57822158391245</v>
+        <v>22.57822158391235</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.95878581158069</v>
+        <v>25.9587858115808</v>
       </c>
       <c r="C17">
-        <v>25.18678026824451</v>
+        <v>25.18678026824471</v>
       </c>
       <c r="D17">
-        <v>9.504063239951059</v>
+        <v>9.504063239951076</v>
       </c>
       <c r="E17">
-        <v>10.67654381339596</v>
+        <v>10.67654381339599</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.45295487560479</v>
+        <v>42.45295487560484</v>
       </c>
       <c r="H17">
-        <v>33.74343345193664</v>
+        <v>33.74343345193663</v>
       </c>
       <c r="I17">
-        <v>5.194197479651574</v>
+        <v>5.194197479651602</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.04211806797921</v>
+        <v>22.04211806797928</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59241645202464</v>
+        <v>25.59241645202446</v>
       </c>
       <c r="C18">
-        <v>24.82120490968753</v>
+        <v>24.8212049096873</v>
       </c>
       <c r="D18">
-        <v>9.3844218197489</v>
+        <v>9.384421819748852</v>
       </c>
       <c r="E18">
-        <v>10.56532728787061</v>
+        <v>10.56532728787058</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.95086998437971</v>
+        <v>41.95086998437965</v>
       </c>
       <c r="H18">
-        <v>33.38834677240477</v>
+        <v>33.38834677240475</v>
       </c>
       <c r="I18">
-        <v>5.185065145857496</v>
+        <v>5.18506514585752</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.73123037206591</v>
+        <v>21.73123037206577</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46780053472513</v>
+        <v>25.46780053472503</v>
       </c>
       <c r="C19">
-        <v>24.69693663452923</v>
+        <v>24.69693663452899</v>
       </c>
       <c r="D19">
-        <v>9.343847450203656</v>
+        <v>9.343847450203658</v>
       </c>
       <c r="E19">
-        <v>10.52771836628411</v>
+        <v>10.52771836628409</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.7808132287855</v>
+        <v>41.78081322878528</v>
       </c>
       <c r="H19">
-        <v>33.2682460043468</v>
+        <v>33.26824600434663</v>
       </c>
       <c r="I19">
-        <v>5.182044260570852</v>
+        <v>5.182044260570855</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.62551854796432</v>
+        <v>21.62551854796417</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02632595855809</v>
+        <v>26.02632595855833</v>
       </c>
       <c r="C20">
-        <v>25.25421136785981</v>
+        <v>25.25421136785985</v>
       </c>
       <c r="D20">
-        <v>9.526175809593139</v>
+        <v>9.526175809593108</v>
       </c>
       <c r="E20">
-        <v>10.69715074835588</v>
+        <v>10.69715074835589</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.54585544396914</v>
+        <v>42.54585544396934</v>
       </c>
       <c r="H20">
-        <v>33.80921466604536</v>
+        <v>33.80921466604548</v>
       </c>
       <c r="I20">
-        <v>5.195921984716084</v>
+        <v>5.195921984716124</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.09944591223099</v>
+        <v>22.09944591223113</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.8657899233602</v>
+        <v>27.86578992336014</v>
       </c>
       <c r="C21">
-        <v>27.09526433602304</v>
+        <v>27.09526433602312</v>
       </c>
       <c r="D21">
-        <v>10.18699441811781</v>
+        <v>10.18699441811782</v>
       </c>
       <c r="E21">
-        <v>11.27030736839585</v>
+        <v>11.27030736839584</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.11499223168057</v>
+        <v>45.1149922316806</v>
       </c>
       <c r="H21">
-        <v>35.63759377792201</v>
+        <v>35.63759377792204</v>
       </c>
       <c r="I21">
-        <v>5.247825234738192</v>
+        <v>5.247825234738188</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.66269526840416</v>
+        <v>23.66269526840417</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.04361633209805</v>
+        <v>29.0436163320981</v>
       </c>
       <c r="C22">
-        <v>28.27886743023988</v>
+        <v>28.27886743024001</v>
       </c>
       <c r="D22">
-        <v>10.63023926951888</v>
+        <v>10.63023926951893</v>
       </c>
       <c r="E22">
-        <v>11.64869232651828</v>
+        <v>11.64869232651831</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.7971907588379</v>
+        <v>46.79719075883796</v>
       </c>
       <c r="H22">
         <v>36.84358179740771</v>
       </c>
       <c r="I22">
-        <v>5.28610151872447</v>
+        <v>5.286101518724486</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.66565319976597</v>
+        <v>24.66565319976606</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41698733246191</v>
+        <v>28.41698733246194</v>
       </c>
       <c r="C23">
-        <v>27.64869115553304</v>
+        <v>27.64869115553298</v>
       </c>
       <c r="D23">
-        <v>10.39427526459471</v>
+        <v>10.39427526459468</v>
       </c>
       <c r="E23">
-        <v>11.44632593915081</v>
+        <v>11.44632593915083</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.89877759710387</v>
+        <v>45.8987775971038</v>
       </c>
       <c r="H23">
-        <v>36.19868881183291</v>
+        <v>36.19868881183285</v>
       </c>
       <c r="I23">
-        <v>5.265244799301033</v>
+        <v>5.26524479930098</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.1318602351773</v>
+        <v>24.13186023517732</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.99580163708354</v>
+        <v>25.99580163708357</v>
       </c>
       <c r="C24">
-        <v>25.22373488552235</v>
+        <v>25.22373488552229</v>
       </c>
       <c r="D24">
         <v>9.516180018359972</v>
       </c>
       <c r="E24">
-        <v>10.6878335965921</v>
+        <v>10.68783359659206</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.50385660333894</v>
+        <v>42.50385660333886</v>
       </c>
       <c r="H24">
         <v>33.77947300149867</v>
       </c>
       <c r="I24">
-        <v>5.195141024882006</v>
+        <v>5.195141024882044</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.07353636451544</v>
+        <v>22.07353636451545</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.25947987578146</v>
+        <v>23.25947987578153</v>
       </c>
       <c r="C25">
-        <v>22.5011798130466</v>
+        <v>22.50117981304658</v>
       </c>
       <c r="D25">
-        <v>8.635745283989765</v>
+        <v>8.635745283989806</v>
       </c>
       <c r="E25">
-        <v>9.880842772348359</v>
+        <v>9.880842772348341</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.83173346824142</v>
+        <v>38.83173346824149</v>
       </c>
       <c r="H25">
-        <v>31.20012636883531</v>
+        <v>31.20012636883536</v>
       </c>
       <c r="I25">
-        <v>5.135631989352111</v>
+        <v>5.135631989352104</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.75489393306785</v>
+        <v>19.75489393306787</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1190431909926</v>
+        <v>21.11904319099262</v>
       </c>
       <c r="C2">
-        <v>20.38419772965586</v>
+        <v>20.38419772965566</v>
       </c>
       <c r="D2">
-        <v>7.971940116977937</v>
+        <v>7.971940116977954</v>
       </c>
       <c r="E2">
-        <v>9.292815795463332</v>
+        <v>9.29281579546331</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.10286197890013</v>
+        <v>36.10286197890004</v>
       </c>
       <c r="H2">
-        <v>29.31478074511025</v>
+        <v>29.31478074511015</v>
       </c>
       <c r="I2">
-        <v>5.103287482517931</v>
+        <v>5.103287482517938</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.94648233275757</v>
+        <v>17.94648233275754</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>19.58253233951321</v>
       </c>
       <c r="C3">
-        <v>18.87123922027294</v>
+        <v>18.87123922027315</v>
       </c>
       <c r="D3">
-        <v>7.511831912408609</v>
+        <v>7.511831912408599</v>
       </c>
       <c r="E3">
-        <v>8.897572295789743</v>
+        <v>8.897572295789672</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.23489294998441</v>
+        <v>34.23489294998456</v>
       </c>
       <c r="H3">
-        <v>28.04318531169424</v>
+        <v>28.04318531169435</v>
       </c>
       <c r="I3">
-        <v>5.087538074453836</v>
+        <v>5.08753807445383</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.65105504800205</v>
+        <v>16.6510550480021</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59460604635075</v>
+        <v>18.59460604635077</v>
       </c>
       <c r="C4">
-        <v>17.90142576993975</v>
+        <v>17.90142576993991</v>
       </c>
       <c r="D4">
-        <v>7.224431130021804</v>
+        <v>7.224431130021871</v>
       </c>
       <c r="E4">
-        <v>8.656587921277231</v>
+        <v>8.656587921277335</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>33.07918541010893</v>
       </c>
       <c r="H4">
-        <v>27.26546541581175</v>
+        <v>27.26546541581173</v>
       </c>
       <c r="I4">
-        <v>5.080628357006418</v>
+        <v>5.080628357006437</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.81930930570467</v>
+        <v>15.8193093057047</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18054424516646</v>
+        <v>18.18054424516654</v>
       </c>
       <c r="C5">
-        <v>17.49565426369334</v>
+        <v>17.49565426369335</v>
       </c>
       <c r="D5">
-        <v>7.10614421174226</v>
+        <v>7.106144211742316</v>
       </c>
       <c r="E5">
-        <v>8.558850255589459</v>
+        <v>8.558850255589533</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.60622335064274</v>
+        <v>32.60622335064266</v>
       </c>
       <c r="H5">
-        <v>26.94938950581681</v>
+        <v>26.94938950581672</v>
       </c>
       <c r="I5">
-        <v>5.078468317735711</v>
+        <v>5.078468317735742</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.47097387571151</v>
+        <v>15.47097387571153</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11108878770023</v>
+        <v>18.11108878770038</v>
       </c>
       <c r="C6">
-        <v>17.42763022498539</v>
+        <v>17.42763022498553</v>
       </c>
       <c r="D6">
-        <v>7.086434616474984</v>
+        <v>7.086434616474964</v>
       </c>
       <c r="E6">
-        <v>8.54265060708572</v>
+        <v>8.54265060708579</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.52757567295382</v>
+        <v>32.52757567295362</v>
       </c>
       <c r="H6">
-        <v>26.89696044032984</v>
+        <v>26.89696044032966</v>
       </c>
       <c r="I6">
-        <v>5.078148180964699</v>
+        <v>5.07814818096487</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.41255881920079</v>
+        <v>15.41255881920091</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58906867824436</v>
+        <v>18.58906867824449</v>
       </c>
       <c r="C7">
-        <v>17.89599653183205</v>
+        <v>17.89599653183225</v>
       </c>
       <c r="D7">
-        <v>7.222840497783753</v>
+        <v>7.222840497783807</v>
       </c>
       <c r="E7">
-        <v>8.655267846913674</v>
+        <v>8.655267846913702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.07281462888174</v>
+        <v>33.07281462888166</v>
       </c>
       <c r="H7">
-        <v>27.26119910039481</v>
+        <v>27.26119910039472</v>
       </c>
       <c r="I7">
-        <v>5.080596619588992</v>
+        <v>5.080596619588949</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.81464987881145</v>
+        <v>15.81464987881161</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59831199487064</v>
+        <v>20.59831199487058</v>
       </c>
       <c r="C8">
-        <v>19.87082124063797</v>
+        <v>19.87082124063771</v>
       </c>
       <c r="D8">
-        <v>7.814336570672579</v>
+        <v>7.814336570672571</v>
       </c>
       <c r="E8">
-        <v>9.156200323840267</v>
+        <v>9.156200323840178</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.46068890224671</v>
+        <v>35.46068890224674</v>
       </c>
       <c r="H8">
-        <v>28.87573315917696</v>
+        <v>28.87573315917699</v>
       </c>
       <c r="I8">
-        <v>5.097260059763895</v>
+        <v>5.097260059763784</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.50720376324554</v>
+        <v>17.50720376324549</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19963197074462</v>
+        <v>24.19963197074465</v>
       </c>
       <c r="C9">
-        <v>23.43451527777358</v>
+        <v>23.43451527777346</v>
       </c>
       <c r="D9">
-        <v>8.934579431975811</v>
+        <v>8.934579431975795</v>
       </c>
       <c r="E9">
-        <v>10.15157113604179</v>
+        <v>10.15157113604178</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.07184904986142</v>
+        <v>40.07184904986143</v>
       </c>
       <c r="H9">
         <v>32.0662716166694</v>
       </c>
       <c r="I9">
-        <v>5.153751554248929</v>
+        <v>5.153751554248966</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.55066084115334</v>
+        <v>20.5506608411533</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.66178489596485</v>
+        <v>26.66178489596496</v>
       </c>
       <c r="C10">
-        <v>25.88921852339808</v>
+        <v>25.88921852339823</v>
       </c>
       <c r="D10">
-        <v>9.735146720187352</v>
+        <v>9.735146720187451</v>
       </c>
       <c r="E10">
-        <v>10.89258785369806</v>
+        <v>10.89258785369809</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.42500704310368</v>
+        <v>43.42500704310385</v>
       </c>
       <c r="H10">
-        <v>34.43291923273546</v>
+        <v>34.43291923273559</v>
       </c>
       <c r="I10">
-        <v>5.212773622155241</v>
+        <v>5.212773622155262</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.63906320668789</v>
+        <v>22.63906320668801</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,22 +760,22 @@
         <v>26.97719352581237</v>
       </c>
       <c r="D11">
-        <v>10.14276633035014</v>
+        <v>10.14276633035018</v>
       </c>
       <c r="E11">
-        <v>11.23296768342824</v>
+        <v>11.23296768342823</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.94842971485267</v>
+        <v>44.9484297148526</v>
       </c>
       <c r="H11">
-        <v>35.518544185537</v>
+        <v>35.51854418553693</v>
       </c>
       <c r="I11">
-        <v>5.244217526347474</v>
+        <v>5.244217526347458</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.56255554949876</v>
+        <v>23.56255554949882</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15520454979444</v>
+        <v>28.15520454979456</v>
       </c>
       <c r="C12">
-        <v>27.38574657284925</v>
+        <v>27.38574657284926</v>
       </c>
       <c r="D12">
-        <v>10.29579765284368</v>
+        <v>10.29579765284377</v>
       </c>
       <c r="E12">
-        <v>11.36249283953077</v>
+        <v>11.36249283953078</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.52576198924645</v>
+        <v>45.52576198924663</v>
       </c>
       <c r="H12">
-        <v>35.93147423825893</v>
+        <v>35.93147423825907</v>
       </c>
       <c r="I12">
-        <v>5.256863738728787</v>
+        <v>5.256863738728834</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.90899445630236</v>
+        <v>23.90899445630245</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06770273256038</v>
+        <v>28.06770273256025</v>
       </c>
       <c r="C13">
-        <v>27.29789804818902</v>
+        <v>27.29789804818877</v>
       </c>
       <c r="D13">
-        <v>10.26289435050619</v>
+        <v>10.26289435050618</v>
       </c>
       <c r="E13">
-        <v>11.33456608218193</v>
+        <v>11.33456608218188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.40138913136557</v>
+        <v>45.40138913136541</v>
       </c>
       <c r="H13">
-        <v>35.84245067947835</v>
+        <v>35.84245067947823</v>
       </c>
       <c r="I13">
-        <v>5.254105888976923</v>
+        <v>5.254105888976876</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.8345181809328</v>
+        <v>23.83451818093268</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.7816634734235</v>
+        <v>27.78166347342347</v>
       </c>
       <c r="C14">
-        <v>27.01086998392993</v>
+        <v>27.01086998392995</v>
       </c>
       <c r="D14">
-        <v>10.15538136971284</v>
+        <v>10.15538136971289</v>
       </c>
       <c r="E14">
-        <v>11.24361004197932</v>
+        <v>11.2436100419793</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.99591322664045</v>
+        <v>44.99591322664044</v>
       </c>
       <c r="H14">
-        <v>35.55247587783077</v>
+        <v>35.55247587783076</v>
       </c>
       <c r="I14">
-        <v>5.245242629437901</v>
+        <v>5.245242629437918</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.59111928597105</v>
+        <v>23.59111928597106</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60592339930069</v>
+        <v>27.60592339930068</v>
       </c>
       <c r="C15">
-        <v>26.8346315761397</v>
+        <v>26.83463157613975</v>
       </c>
       <c r="D15">
-        <v>10.08936167543047</v>
+        <v>10.08936167543045</v>
       </c>
       <c r="E15">
         <v>11.18798465895488</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.74763124060767</v>
+        <v>44.74763124060771</v>
       </c>
       <c r="H15">
-        <v>35.37511475111961</v>
+        <v>35.37511475111965</v>
       </c>
       <c r="I15">
-        <v>5.239912427468638</v>
+        <v>5.239912427468614</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.44162281792102</v>
+        <v>23.441622817921</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.59016305532781</v>
+        <v>26.59016305532798</v>
       </c>
       <c r="C16">
-        <v>25.81759540711358</v>
+        <v>25.81759540711371</v>
       </c>
       <c r="D16">
-        <v>9.711446005873739</v>
+        <v>9.71144600587375</v>
       </c>
       <c r="E16">
-        <v>10.87042159574116</v>
+        <v>10.87042159574119</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.32546510546374</v>
+        <v>43.32546510546402</v>
       </c>
       <c r="H16">
-        <v>34.36219393666946</v>
+        <v>34.36219393666966</v>
       </c>
       <c r="I16">
-        <v>5.210817557701114</v>
+        <v>5.210817557701176</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.57822158391235</v>
+        <v>22.57822158391245</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9587858115808</v>
+        <v>25.95878581158069</v>
       </c>
       <c r="C17">
-        <v>25.18678026824471</v>
+        <v>25.18678026824451</v>
       </c>
       <c r="D17">
-        <v>9.504063239951076</v>
+        <v>9.504063239951059</v>
       </c>
       <c r="E17">
-        <v>10.67654381339599</v>
+        <v>10.67654381339596</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.45295487560484</v>
+        <v>42.45295487560479</v>
       </c>
       <c r="H17">
-        <v>33.74343345193663</v>
+        <v>33.74343345193664</v>
       </c>
       <c r="I17">
-        <v>5.194197479651602</v>
+        <v>5.194197479651574</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.04211806797928</v>
+        <v>22.04211806797921</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59241645202446</v>
+        <v>25.59241645202464</v>
       </c>
       <c r="C18">
-        <v>24.8212049096873</v>
+        <v>24.82120490968753</v>
       </c>
       <c r="D18">
-        <v>9.384421819748852</v>
+        <v>9.3844218197489</v>
       </c>
       <c r="E18">
-        <v>10.56532728787058</v>
+        <v>10.56532728787061</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.95086998437965</v>
+        <v>41.95086998437971</v>
       </c>
       <c r="H18">
-        <v>33.38834677240475</v>
+        <v>33.38834677240477</v>
       </c>
       <c r="I18">
-        <v>5.18506514585752</v>
+        <v>5.185065145857496</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.73123037206577</v>
+        <v>21.73123037206591</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46780053472503</v>
+        <v>25.46780053472513</v>
       </c>
       <c r="C19">
-        <v>24.69693663452899</v>
+        <v>24.69693663452923</v>
       </c>
       <c r="D19">
-        <v>9.343847450203658</v>
+        <v>9.343847450203656</v>
       </c>
       <c r="E19">
-        <v>10.52771836628409</v>
+        <v>10.52771836628411</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.78081322878528</v>
+        <v>41.7808132287855</v>
       </c>
       <c r="H19">
-        <v>33.26824600434663</v>
+        <v>33.2682460043468</v>
       </c>
       <c r="I19">
-        <v>5.182044260570855</v>
+        <v>5.182044260570852</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.62551854796417</v>
+        <v>21.62551854796432</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02632595855833</v>
+        <v>26.02632595855809</v>
       </c>
       <c r="C20">
-        <v>25.25421136785985</v>
+        <v>25.25421136785981</v>
       </c>
       <c r="D20">
-        <v>9.526175809593108</v>
+        <v>9.526175809593139</v>
       </c>
       <c r="E20">
-        <v>10.69715074835589</v>
+        <v>10.69715074835588</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.54585544396934</v>
+        <v>42.54585544396914</v>
       </c>
       <c r="H20">
-        <v>33.80921466604548</v>
+        <v>33.80921466604536</v>
       </c>
       <c r="I20">
-        <v>5.195921984716124</v>
+        <v>5.195921984716084</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.09944591223113</v>
+        <v>22.09944591223099</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.86578992336014</v>
+        <v>27.8657899233602</v>
       </c>
       <c r="C21">
-        <v>27.09526433602312</v>
+        <v>27.09526433602304</v>
       </c>
       <c r="D21">
-        <v>10.18699441811782</v>
+        <v>10.18699441811781</v>
       </c>
       <c r="E21">
-        <v>11.27030736839584</v>
+        <v>11.27030736839585</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.1149922316806</v>
+        <v>45.11499223168057</v>
       </c>
       <c r="H21">
-        <v>35.63759377792204</v>
+        <v>35.63759377792201</v>
       </c>
       <c r="I21">
-        <v>5.247825234738188</v>
+        <v>5.247825234738192</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.66269526840417</v>
+        <v>23.66269526840416</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.0436163320981</v>
+        <v>29.04361633209805</v>
       </c>
       <c r="C22">
-        <v>28.27886743024001</v>
+        <v>28.27886743023988</v>
       </c>
       <c r="D22">
-        <v>10.63023926951893</v>
+        <v>10.63023926951888</v>
       </c>
       <c r="E22">
-        <v>11.64869232651831</v>
+        <v>11.64869232651828</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.79719075883796</v>
+        <v>46.7971907588379</v>
       </c>
       <c r="H22">
         <v>36.84358179740771</v>
       </c>
       <c r="I22">
-        <v>5.286101518724486</v>
+        <v>5.28610151872447</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.66565319976606</v>
+        <v>24.66565319976597</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41698733246194</v>
+        <v>28.41698733246191</v>
       </c>
       <c r="C23">
-        <v>27.64869115553298</v>
+        <v>27.64869115553304</v>
       </c>
       <c r="D23">
-        <v>10.39427526459468</v>
+        <v>10.39427526459471</v>
       </c>
       <c r="E23">
-        <v>11.44632593915083</v>
+        <v>11.44632593915081</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.8987775971038</v>
+        <v>45.89877759710387</v>
       </c>
       <c r="H23">
-        <v>36.19868881183285</v>
+        <v>36.19868881183291</v>
       </c>
       <c r="I23">
-        <v>5.26524479930098</v>
+        <v>5.265244799301033</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.13186023517732</v>
+        <v>24.1318602351773</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.99580163708357</v>
+        <v>25.99580163708354</v>
       </c>
       <c r="C24">
-        <v>25.22373488552229</v>
+        <v>25.22373488552235</v>
       </c>
       <c r="D24">
         <v>9.516180018359972</v>
       </c>
       <c r="E24">
-        <v>10.68783359659206</v>
+        <v>10.6878335965921</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.50385660333886</v>
+        <v>42.50385660333894</v>
       </c>
       <c r="H24">
         <v>33.77947300149867</v>
       </c>
       <c r="I24">
-        <v>5.195141024882044</v>
+        <v>5.195141024882006</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.07353636451545</v>
+        <v>22.07353636451544</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.25947987578153</v>
+        <v>23.25947987578146</v>
       </c>
       <c r="C25">
-        <v>22.50117981304658</v>
+        <v>22.5011798130466</v>
       </c>
       <c r="D25">
-        <v>8.635745283989806</v>
+        <v>8.635745283989765</v>
       </c>
       <c r="E25">
-        <v>9.880842772348341</v>
+        <v>9.880842772348359</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.83173346824149</v>
+        <v>38.83173346824142</v>
       </c>
       <c r="H25">
-        <v>31.20012636883536</v>
+        <v>31.20012636883531</v>
       </c>
       <c r="I25">
-        <v>5.135631989352104</v>
+        <v>5.135631989352111</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.75489393306787</v>
+        <v>19.75489393306785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11904319099262</v>
+        <v>21.11811611916513</v>
       </c>
       <c r="C2">
-        <v>20.38419772965566</v>
+        <v>20.37393264386002</v>
       </c>
       <c r="D2">
-        <v>7.971940116977954</v>
+        <v>7.971938296381633</v>
       </c>
       <c r="E2">
-        <v>9.29281579546331</v>
+        <v>9.293266171110115</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.10286197890004</v>
+        <v>35.17961882352947</v>
       </c>
       <c r="H2">
-        <v>29.31478074511015</v>
+        <v>36.14283871828058</v>
       </c>
       <c r="I2">
-        <v>5.103287482517938</v>
+        <v>29.27516215748719</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.10332453956739</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.94648233275754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.94431517533928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.58253233951321</v>
+        <v>19.5819896600306</v>
       </c>
       <c r="C3">
-        <v>18.87123922027315</v>
+        <v>18.86189934047443</v>
       </c>
       <c r="D3">
-        <v>7.511831912408599</v>
+        <v>7.511876484600484</v>
       </c>
       <c r="E3">
-        <v>8.897572295789672</v>
+        <v>8.898070636245016</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.23489294998456</v>
+        <v>33.08695835444541</v>
       </c>
       <c r="H3">
-        <v>28.04318531169435</v>
+        <v>34.27340086629616</v>
       </c>
       <c r="I3">
-        <v>5.08753807445383</v>
+        <v>28.00664601293295</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.087640841221262</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.6510550480021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.64924828202417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59460604635077</v>
+        <v>18.59428348470667</v>
       </c>
       <c r="C4">
-        <v>17.90142576993991</v>
+        <v>17.892650984798</v>
       </c>
       <c r="D4">
-        <v>7.224431130021871</v>
+        <v>7.224499699948778</v>
       </c>
       <c r="E4">
-        <v>8.656587921277335</v>
+        <v>8.657118869737856</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.07918541010893</v>
+        <v>31.77848433543121</v>
       </c>
       <c r="H4">
-        <v>27.26546541581173</v>
+        <v>33.1168396416744</v>
       </c>
       <c r="I4">
-        <v>5.080628357006437</v>
+        <v>27.23089326687202</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.08077528668156</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.8193093057047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.81771712610466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18054424516654</v>
+        <v>18.18030793829982</v>
       </c>
       <c r="C5">
-        <v>17.49565426369335</v>
+        <v>17.48710953882055</v>
       </c>
       <c r="D5">
-        <v>7.106144211742316</v>
+        <v>7.106221595734159</v>
       </c>
       <c r="E5">
-        <v>8.558850255589533</v>
+        <v>8.559395445663487</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.60622335064266</v>
+        <v>31.23950818679913</v>
       </c>
       <c r="H5">
-        <v>26.94938950581672</v>
+        <v>32.64354295241026</v>
       </c>
       <c r="I5">
-        <v>5.078468317735742</v>
+        <v>26.91563813223904</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.078634172136918</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.47097387571153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.46946794970231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11108878770038</v>
+        <v>18.11086660969889</v>
       </c>
       <c r="C6">
-        <v>17.42763022498553</v>
+        <v>17.41912370100836</v>
       </c>
       <c r="D6">
-        <v>7.086434616474964</v>
+        <v>7.08651341008974</v>
       </c>
       <c r="E6">
-        <v>8.54265060708579</v>
+        <v>8.543198223714779</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.52757567295362</v>
+        <v>31.1496712303772</v>
       </c>
       <c r="H6">
-        <v>26.89696044032966</v>
+        <v>32.56484054360264</v>
       </c>
       <c r="I6">
-        <v>5.07814818096487</v>
+        <v>26.86334650362012</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.078317232895037</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.41255881920091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.41106715676904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58906867824449</v>
+        <v>18.58874729314829</v>
       </c>
       <c r="C7">
-        <v>17.89599653183225</v>
+        <v>17.88722484965513</v>
       </c>
       <c r="D7">
-        <v>7.222840497783807</v>
+        <v>7.222909190289037</v>
       </c>
       <c r="E7">
-        <v>8.655267846913702</v>
+        <v>8.655798983389172</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.07281462888166</v>
+        <v>31.77123852141562</v>
       </c>
       <c r="H7">
-        <v>27.26119910039472</v>
+        <v>33.11046429233846</v>
       </c>
       <c r="I7">
-        <v>5.080596619588949</v>
+        <v>27.22663794354033</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.080743800775204</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.81464987881161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.81305886667879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59831199487058</v>
+        <v>20.59752112584931</v>
       </c>
       <c r="C8">
-        <v>19.87082124063771</v>
+        <v>19.86087614922041</v>
       </c>
       <c r="D8">
-        <v>7.814336570672571</v>
+        <v>7.81435178365955</v>
       </c>
       <c r="E8">
-        <v>9.156200323840178</v>
+        <v>9.156666687231411</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.46068890224674</v>
+        <v>34.46301471869917</v>
       </c>
       <c r="H8">
-        <v>28.87573315917699</v>
+        <v>35.50014987204103</v>
       </c>
       <c r="I8">
-        <v>5.097260059763784</v>
+        <v>28.83716049804998</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.097318962754421</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.50720376324549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.5051625749624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19963197074465</v>
+        <v>24.19776336122103</v>
       </c>
       <c r="C9">
-        <v>23.43451527777346</v>
+        <v>23.42221326612193</v>
       </c>
       <c r="D9">
-        <v>8.934579431975795</v>
+        <v>8.934445263500752</v>
       </c>
       <c r="E9">
-        <v>10.15157113604178</v>
+        <v>10.15192672059742</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.07184904986143</v>
+        <v>39.55541221619733</v>
       </c>
       <c r="H9">
-        <v>32.0662716166694</v>
+        <v>40.11519465868302</v>
       </c>
       <c r="I9">
-        <v>5.153751554248966</v>
+        <v>32.02042422623606</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.153668910933423</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.5506608411533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>20.54765744645081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.66178489596496</v>
+        <v>26.65897389497652</v>
       </c>
       <c r="C10">
-        <v>25.88921852339823</v>
+        <v>25.87509092048942</v>
       </c>
       <c r="D10">
-        <v>9.735146720187451</v>
+        <v>9.734828437513926</v>
       </c>
       <c r="E10">
-        <v>10.89258785369809</v>
+        <v>10.89285656671669</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.42500704310385</v>
+        <v>43.19690158958333</v>
       </c>
       <c r="H10">
-        <v>34.43291923273559</v>
+        <v>43.47134247112204</v>
       </c>
       <c r="I10">
-        <v>5.212773622155262</v>
+        <v>34.38203898211377</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.212607591148763</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.63906320668801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.6352590652869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74808862176707</v>
+        <v>27.74479948500119</v>
       </c>
       <c r="C11">
-        <v>26.97719352581237</v>
+        <v>26.96219612266304</v>
       </c>
       <c r="D11">
-        <v>10.14276633035018</v>
+        <v>10.14236085237527</v>
       </c>
       <c r="E11">
-        <v>11.23296768342823</v>
+        <v>11.23319103443529</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.9484297148526</v>
+        <v>44.83849372895239</v>
       </c>
       <c r="H11">
-        <v>35.51854418553693</v>
+        <v>44.99613954387325</v>
       </c>
       <c r="I11">
-        <v>5.244217526347458</v>
+        <v>35.46542231813268</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.244018137801983</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.56255554949882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.55835311369515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15520454979456</v>
+        <v>28.15172537838131</v>
       </c>
       <c r="C12">
-        <v>27.38574657284926</v>
+        <v>27.37041200642071</v>
       </c>
       <c r="D12">
-        <v>10.29579765284377</v>
+        <v>10.29535652572458</v>
       </c>
       <c r="E12">
-        <v>11.36249283953078</v>
+        <v>11.36269765061788</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.52576198924663</v>
+        <v>45.45880622427232</v>
       </c>
       <c r="H12">
-        <v>35.93147423825907</v>
+        <v>45.57399286681738</v>
       </c>
       <c r="I12">
-        <v>5.256863738728834</v>
+        <v>35.87750800984419</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.256652363021741</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.90899445630245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.90463478232049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06770273256025</v>
+        <v>28.06426492274946</v>
       </c>
       <c r="C13">
-        <v>27.29789804818877</v>
+        <v>27.28263648258683</v>
       </c>
       <c r="D13">
-        <v>10.26289435050618</v>
+        <v>10.26246102878641</v>
       </c>
       <c r="E13">
-        <v>11.33456608218188</v>
+        <v>11.33477495663191</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.40138913136541</v>
+        <v>45.32525381388013</v>
       </c>
       <c r="H13">
-        <v>35.84245067947823</v>
+        <v>45.44950779176451</v>
       </c>
       <c r="I13">
-        <v>5.254105888976876</v>
+        <v>35.78866614552317</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.253897066730119</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.83451818093268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.83019268479781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78166347342347</v>
+        <v>27.77835889471944</v>
       </c>
       <c r="C14">
-        <v>27.01086998392995</v>
+        <v>26.99584501254988</v>
       </c>
       <c r="D14">
-        <v>10.15538136971289</v>
+        <v>10.15497301538495</v>
       </c>
       <c r="E14">
-        <v>11.2436100419793</v>
+        <v>11.243831898501</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.99591322664044</v>
+        <v>44.88954809877539</v>
       </c>
       <c r="H14">
-        <v>35.55247587783076</v>
+        <v>45.0436659201071</v>
       </c>
       <c r="I14">
-        <v>5.245242629437918</v>
+        <v>35.49928447063056</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.245042241946586</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.59111928597106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.58690405275646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60592339930068</v>
+        <v>27.60269919595314</v>
       </c>
       <c r="C15">
-        <v>26.83463157613975</v>
+        <v>26.81975043808105</v>
       </c>
       <c r="D15">
-        <v>10.08936167543045</v>
+        <v>10.08896825233657</v>
       </c>
       <c r="E15">
-        <v>11.18798465895488</v>
+        <v>11.18821427204574</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.74763124060771</v>
+        <v>44.62252225815313</v>
       </c>
       <c r="H15">
-        <v>35.37511475111965</v>
+        <v>44.79515979803416</v>
       </c>
       <c r="I15">
-        <v>5.239912427468614</v>
+        <v>35.32228715271935</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.239717289647052</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.441622817921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.43747423687748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.59016305532798</v>
+        <v>26.58738215801391</v>
       </c>
       <c r="C16">
-        <v>25.81759540711371</v>
+        <v>25.80352368651696</v>
       </c>
       <c r="D16">
-        <v>9.71144600587375</v>
+        <v>9.711164384752403</v>
       </c>
       <c r="E16">
-        <v>10.87042159574119</v>
+        <v>10.87069311414532</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.32546510546402</v>
+        <v>43.08938406830676</v>
       </c>
       <c r="H16">
-        <v>34.36219393666966</v>
+        <v>43.37171088133901</v>
       </c>
       <c r="I16">
-        <v>5.210817557701176</v>
+        <v>34.31146095545947</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.210653798142997</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.57822158391245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.57444266607981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.95878581158069</v>
+        <v>25.95626302163224</v>
       </c>
       <c r="C17">
-        <v>25.18678026824451</v>
+        <v>25.17319367666529</v>
       </c>
       <c r="D17">
-        <v>9.504063239951059</v>
+        <v>9.503824961393086</v>
       </c>
       <c r="E17">
-        <v>10.67654381339596</v>
+        <v>10.67683921239009</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.45295487560479</v>
+        <v>42.14553878771015</v>
       </c>
       <c r="H17">
-        <v>33.74343345193664</v>
+        <v>42.49841640153642</v>
       </c>
       <c r="I17">
-        <v>5.194197479651574</v>
+        <v>33.69399622052463</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.194054139011184</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.04211806797921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.03855624648703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59241645202464</v>
+        <v>25.59003760104969</v>
       </c>
       <c r="C18">
-        <v>24.82120490968753</v>
+        <v>24.80789380569307</v>
       </c>
       <c r="D18">
-        <v>9.3844218197489</v>
+        <v>9.384207180032446</v>
       </c>
       <c r="E18">
-        <v>10.56532728787061</v>
+        <v>10.56563591033373</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.95086998437971</v>
+        <v>41.60119462896974</v>
       </c>
       <c r="H18">
-        <v>33.38834677240477</v>
+        <v>41.99588187581735</v>
       </c>
       <c r="I18">
-        <v>5.185065145857496</v>
+        <v>33.33965950686975</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.184933982248148</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.73123037206591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.72779032592184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46780053472513</v>
+        <v>25.46546969250992</v>
       </c>
       <c r="C19">
-        <v>24.69693663452923</v>
+        <v>24.68371825311077</v>
       </c>
       <c r="D19">
-        <v>9.343847450203656</v>
+        <v>9.343640606913453</v>
       </c>
       <c r="E19">
-        <v>10.52771836628411</v>
+        <v>10.52803139180575</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.7808132287855</v>
+        <v>41.41661546438532</v>
       </c>
       <c r="H19">
-        <v>33.2682460043468</v>
+        <v>41.8256731708825</v>
       </c>
       <c r="I19">
-        <v>5.182044260570852</v>
+        <v>33.21981353072649</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.181917294244165</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.62551854796432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.62211924187321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02632595855809</v>
+        <v>26.02377617221016</v>
       </c>
       <c r="C20">
-        <v>25.25421136785981</v>
+        <v>25.24057351413595</v>
       </c>
       <c r="D20">
-        <v>9.526175809593139</v>
+        <v>9.525933054230034</v>
       </c>
       <c r="E20">
-        <v>10.69715074835588</v>
+        <v>10.69744366156158</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.54585544396914</v>
+        <v>42.24615959384734</v>
       </c>
       <c r="H20">
-        <v>33.80921466604536</v>
+        <v>42.59140031491087</v>
       </c>
       <c r="I20">
-        <v>5.195921984716084</v>
+        <v>33.75963903009302</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.195776425697851</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.09944591223099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.09586131032873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.8657899233602</v>
+        <v>27.86244647236268</v>
       </c>
       <c r="C21">
-        <v>27.09526433602304</v>
+        <v>27.08017010246765</v>
       </c>
       <c r="D21">
-        <v>10.18699441811781</v>
+        <v>10.18657880694756</v>
       </c>
       <c r="E21">
-        <v>11.27030736839585</v>
+        <v>11.27052545361543</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.11499223168057</v>
+        <v>45.01755350241005</v>
       </c>
       <c r="H21">
-        <v>35.63759377792201</v>
+        <v>45.1628524154187</v>
       </c>
       <c r="I21">
-        <v>5.247825234738192</v>
+        <v>35.5842280558175</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.247622352488681</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.66269526840416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.6584478364602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.04361633209805</v>
+        <v>29.03970060696351</v>
       </c>
       <c r="C22">
-        <v>28.27886743023988</v>
+        <v>28.26277452203841</v>
       </c>
       <c r="D22">
-        <v>10.63023926951888</v>
+        <v>10.62971424643676</v>
       </c>
       <c r="E22">
-        <v>11.64869232651828</v>
+        <v>11.64885321039951</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.7971907588379</v>
+        <v>46.82168175983249</v>
       </c>
       <c r="H22">
-        <v>36.84358179740771</v>
+        <v>46.84656668223241</v>
       </c>
       <c r="I22">
-        <v>5.28610151872447</v>
+        <v>36.7877635368307</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.285864903691444</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.66565319976597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.66093416692281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41698733246191</v>
+        <v>28.41338269620148</v>
       </c>
       <c r="C23">
-        <v>27.64869115553304</v>
+        <v>27.63313641145087</v>
       </c>
       <c r="D23">
-        <v>10.39427526459471</v>
+        <v>10.39381030631947</v>
       </c>
       <c r="E23">
-        <v>11.44632593915081</v>
+        <v>11.44651832422959</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.89877759710387</v>
+        <v>45.85909712358286</v>
       </c>
       <c r="H23">
-        <v>36.19868881183291</v>
+        <v>45.94734487055218</v>
       </c>
       <c r="I23">
-        <v>5.265244799301033</v>
+        <v>36.14417826516446</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.265025858038131</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.1318602351773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.1273970331734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.99580163708354</v>
+        <v>25.99326406953442</v>
       </c>
       <c r="C24">
-        <v>25.22373488552235</v>
+        <v>25.21012021790506</v>
       </c>
       <c r="D24">
-        <v>9.516180018359972</v>
+        <v>9.515939290906045</v>
       </c>
       <c r="E24">
-        <v>10.6878335965921</v>
+        <v>10.68812763516083</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.50385660333894</v>
+        <v>42.20067432760131</v>
       </c>
       <c r="H24">
-        <v>33.77947300149867</v>
+        <v>42.54936379011352</v>
       </c>
       <c r="I24">
-        <v>5.195141024882006</v>
+        <v>33.72995992240487</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.194996467427385</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.07353636451544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.06996207098297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.25947987578146</v>
+        <v>23.25792456847303</v>
       </c>
       <c r="C25">
-        <v>22.5011798130466</v>
+        <v>22.48952667061793</v>
       </c>
       <c r="D25">
-        <v>8.635745283989765</v>
+        <v>8.635657701993132</v>
       </c>
       <c r="E25">
-        <v>9.880842772348359</v>
+        <v>9.881227978208344</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.83173346824142</v>
+        <v>38.19694290487388</v>
       </c>
       <c r="H25">
-        <v>31.20012636883531</v>
+        <v>38.87399944003418</v>
       </c>
       <c r="I25">
-        <v>5.135631989352111</v>
+        <v>31.15618716435008</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.135584093450986</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.75489393306785</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.75216346579224</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11811611916513</v>
+        <v>20.86783248609604</v>
       </c>
       <c r="C2">
-        <v>20.37393264386002</v>
+        <v>8.202063202182783</v>
       </c>
       <c r="D2">
-        <v>7.971938296381633</v>
+        <v>9.101157919927671</v>
       </c>
       <c r="E2">
-        <v>9.293266171110115</v>
+        <v>8.133877783145307</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.17961882352947</v>
+        <v>2.172758940281928</v>
       </c>
       <c r="H2">
-        <v>36.14283871828058</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.27516215748719</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.10332453956739</v>
+        <v>4.858239638147308</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.78804871124199</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.415463911547798</v>
       </c>
       <c r="M2">
-        <v>17.94431517533928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>66.77142238051947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5819896600306</v>
+        <v>19.93942531900505</v>
       </c>
       <c r="C3">
-        <v>18.86189934047443</v>
+        <v>7.524057771384</v>
       </c>
       <c r="D3">
-        <v>7.511876484600484</v>
+        <v>8.896506477800163</v>
       </c>
       <c r="E3">
-        <v>8.898070636245016</v>
+        <v>8.076913558285433</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.08695835444541</v>
+        <v>2.188652720700855</v>
       </c>
       <c r="H3">
-        <v>34.27340086629616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.00664601293295</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.087640841221262</v>
+        <v>4.855033767392148</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.11755508930396</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.32728073593754</v>
       </c>
       <c r="M3">
-        <v>16.64924828202417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>63.47760005770654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59428348470667</v>
+        <v>19.38307912059056</v>
       </c>
       <c r="C4">
-        <v>17.892650984798</v>
+        <v>7.094607596916423</v>
       </c>
       <c r="D4">
-        <v>7.224499699948778</v>
+        <v>8.775552127663063</v>
       </c>
       <c r="E4">
-        <v>8.657118869737856</v>
+        <v>8.044928691503106</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.77848433543121</v>
+        <v>2.198532692607949</v>
       </c>
       <c r="H4">
-        <v>33.1168396416744</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>27.23089326687202</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.08077528668156</v>
+        <v>4.853310886906457</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.72043600027614</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.280523041260048</v>
       </c>
       <c r="M4">
-        <v>15.81771712610466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>61.41883318275425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18030793829982</v>
+        <v>19.15991544372456</v>
       </c>
       <c r="C5">
-        <v>17.48710953882055</v>
+        <v>6.916079469668062</v>
       </c>
       <c r="D5">
-        <v>7.106221595734159</v>
+        <v>8.727416210261245</v>
       </c>
       <c r="E5">
-        <v>8.559395445663487</v>
+        <v>8.032609962576457</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.23950818679913</v>
+        <v>2.202596028527077</v>
       </c>
       <c r="H5">
-        <v>32.64354295241026</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>26.91563813223904</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.078634172136918</v>
+        <v>4.852663712334008</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.56231000877274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.263244529615161</v>
       </c>
       <c r="M5">
-        <v>15.46946794970231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>60.57082020384692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11086660969889</v>
+        <v>19.12307793942522</v>
       </c>
       <c r="C6">
-        <v>17.41912370100836</v>
+        <v>6.886216392800756</v>
       </c>
       <c r="D6">
-        <v>7.08651341008974</v>
+        <v>8.719492240383675</v>
       </c>
       <c r="E6">
-        <v>8.543198223714779</v>
+        <v>8.030606636369713</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.1496712303772</v>
+        <v>2.203273169394294</v>
       </c>
       <c r="H6">
-        <v>32.56484054360264</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>26.86334650362012</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.078317232895037</v>
+        <v>4.852559383013798</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.53627875762977</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.260480377340569</v>
       </c>
       <c r="M6">
-        <v>15.41106715676904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>60.42946808694798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58874729314829</v>
+        <v>19.3800548954064</v>
       </c>
       <c r="C7">
-        <v>17.88722484965513</v>
+        <v>7.092214437268411</v>
       </c>
       <c r="D7">
-        <v>7.222909190289037</v>
+        <v>8.774898311246925</v>
       </c>
       <c r="E7">
-        <v>8.655798983389172</v>
+        <v>8.044759706683633</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.77123852141562</v>
+        <v>2.198587333355111</v>
       </c>
       <c r="H7">
-        <v>33.11046429233846</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>27.22663794354033</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.080743800775204</v>
+        <v>4.853301944928418</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.71828838648945</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.280282932749069</v>
       </c>
       <c r="M7">
-        <v>15.81305886667879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>61.40743296261415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59752112584931</v>
+        <v>20.54492007359756</v>
       </c>
       <c r="C8">
-        <v>19.86087614922041</v>
+        <v>7.970877085820592</v>
       </c>
       <c r="D8">
-        <v>7.81435178365955</v>
+        <v>9.029598942508377</v>
       </c>
       <c r="E8">
-        <v>9.156666687231411</v>
+        <v>8.113592380037389</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.46301471869917</v>
+        <v>2.178218260728429</v>
       </c>
       <c r="H8">
-        <v>35.50014987204103</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>28.83716049804998</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.097318962754421</v>
+        <v>4.857078889108847</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.55385154094074</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.383474268168044</v>
       </c>
       <c r="M8">
-        <v>17.5051625749624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>65.6432491724748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19776336122103</v>
+        <v>22.93698323039149</v>
       </c>
       <c r="C9">
-        <v>23.42221326612193</v>
+        <v>9.601065684780586</v>
       </c>
       <c r="D9">
-        <v>8.934445263500752</v>
+        <v>9.568111611097597</v>
       </c>
       <c r="E9">
-        <v>10.15192672059742</v>
+        <v>8.274185099163043</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.55541221619733</v>
+        <v>2.138886073137074</v>
       </c>
       <c r="H9">
-        <v>40.11519465868302</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.02042422623606</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.153668910933423</v>
+        <v>4.866798030593244</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.30876976763991</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.648463273500646</v>
       </c>
       <c r="M9">
-        <v>20.54765744645081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>73.66858747491165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.65897389497652</v>
+        <v>24.76628753922443</v>
       </c>
       <c r="C10">
-        <v>25.87509092048942</v>
+        <v>10.76137600873389</v>
       </c>
       <c r="D10">
-        <v>9.734828437513926</v>
+        <v>9.990969667490134</v>
       </c>
       <c r="E10">
-        <v>10.89285656671669</v>
+        <v>8.410831585499368</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.19690158958333</v>
+        <v>2.109783427893856</v>
       </c>
       <c r="H10">
-        <v>43.47134247112204</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.38203898211377</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.212607591148763</v>
+        <v>4.875967891385264</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.03043720410616</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.887657404576347</v>
       </c>
       <c r="M10">
-        <v>22.6352590652869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.42208180069193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74479948500119</v>
+        <v>25.61804887422964</v>
       </c>
       <c r="C11">
-        <v>26.96219612266304</v>
+        <v>11.28656493299816</v>
       </c>
       <c r="D11">
-        <v>10.14236085237527</v>
+        <v>10.19039183882878</v>
       </c>
       <c r="E11">
-        <v>11.23319103443529</v>
+        <v>8.477886915708499</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.83849372895239</v>
+        <v>2.096336884284272</v>
       </c>
       <c r="H11">
-        <v>44.99613954387325</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35.46542231813268</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.244018137801983</v>
+        <v>4.88076066512714</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.87445147436997</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.007842350082779</v>
       </c>
       <c r="M11">
-        <v>23.55835311369515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.02072698546374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.15172537838131</v>
+        <v>25.99527226899621</v>
       </c>
       <c r="C12">
-        <v>27.37041200642071</v>
+        <v>11.48563418858647</v>
       </c>
       <c r="D12">
-        <v>10.29535652572458</v>
+        <v>10.26705705325805</v>
       </c>
       <c r="E12">
-        <v>11.36269765061788</v>
+        <v>8.504069785414261</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.45880622427232</v>
+        <v>2.091198163823374</v>
       </c>
       <c r="H12">
-        <v>45.57399286681738</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>35.87750800984419</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.256652363021741</v>
+        <v>4.882684416359369</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.19381975326991</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.055164714436117</v>
       </c>
       <c r="M12">
-        <v>23.90463478232049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.00358756557331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06426492274946</v>
+        <v>25.91338567695856</v>
       </c>
       <c r="C13">
-        <v>27.28263648258683</v>
+        <v>11.44274210838685</v>
       </c>
       <c r="D13">
-        <v>10.26246102878641</v>
+        <v>10.25049220558197</v>
       </c>
       <c r="E13">
-        <v>11.33477495663191</v>
+        <v>8.498394104761321</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.32525381388013</v>
+        <v>2.092307269731058</v>
       </c>
       <c r="H13">
-        <v>45.44950779176451</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>35.78866614552317</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.253897066730119</v>
+        <v>4.882264901870346</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.12503643062714</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.044889264992708</v>
       </c>
       <c r="M13">
-        <v>23.83019268479781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.79193514325056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.77835889471944</v>
+        <v>25.64652849469135</v>
       </c>
       <c r="C14">
-        <v>26.99584501254988</v>
+        <v>11.30293492759191</v>
       </c>
       <c r="D14">
-        <v>10.15497301538495</v>
+        <v>10.19667521354244</v>
       </c>
       <c r="E14">
-        <v>11.243831898501</v>
+        <v>8.480024593306382</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.88954809877539</v>
+        <v>2.095915166639389</v>
       </c>
       <c r="H14">
-        <v>45.0436659201071</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35.49928447063056</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.245042241946586</v>
+        <v>4.880916624178378</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.90072653473907</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.011698160344951</v>
       </c>
       <c r="M14">
-        <v>23.58690405275646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.10160117454981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.60269919595314</v>
+        <v>25.50509094643312</v>
       </c>
       <c r="C15">
-        <v>26.81975043808105</v>
+        <v>11.21734298787436</v>
       </c>
       <c r="D15">
-        <v>10.08896825233657</v>
+        <v>10.16386492202102</v>
       </c>
       <c r="E15">
-        <v>11.18821427204574</v>
+        <v>8.468878556136149</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.62252225815313</v>
+        <v>2.098118448298254</v>
       </c>
       <c r="H15">
-        <v>44.79515979803416</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>35.32228715271935</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.239717289647052</v>
+        <v>4.880105594014548</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.76332131653834</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.99160931083602</v>
       </c>
       <c r="M15">
-        <v>23.43747423687748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.67864880996383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58738215801391</v>
+        <v>24.71105969880152</v>
       </c>
       <c r="C16">
-        <v>25.80352368651696</v>
+        <v>10.72704669495933</v>
       </c>
       <c r="D16">
-        <v>9.711164384752403</v>
+        <v>9.978089553582233</v>
       </c>
       <c r="E16">
-        <v>10.87069311414532</v>
+        <v>8.40655486674906</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.08938406830676</v>
+        <v>2.110656642427588</v>
       </c>
       <c r="H16">
-        <v>43.37171088133901</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.31146095545947</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.210653798142997</v>
+        <v>4.875668741460442</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.97520536555034</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.880046109633566</v>
       </c>
       <c r="M16">
-        <v>22.57444266607981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.25199635284741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.95626302163224</v>
+        <v>24.22929546688071</v>
       </c>
       <c r="C17">
-        <v>25.17319367666529</v>
+        <v>10.42595980425249</v>
       </c>
       <c r="D17">
-        <v>9.503824961393086</v>
+        <v>9.866013979166388</v>
       </c>
       <c r="E17">
-        <v>10.67683921239009</v>
+        <v>8.369631268995903</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.14553878771015</v>
+        <v>2.118284232676005</v>
       </c>
       <c r="H17">
-        <v>42.49841640153642</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.69399622052463</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.194054139011184</v>
+        <v>4.873118545656545</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.49053528946673</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.814633055083176</v>
       </c>
       <c r="M17">
-        <v>22.03855624648703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.75947154274807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59003760104969</v>
+        <v>23.95399822778094</v>
       </c>
       <c r="C18">
-        <v>24.80789380569307</v>
+        <v>10.25249356162319</v>
       </c>
       <c r="D18">
-        <v>9.384207180032446</v>
+        <v>9.802205832322986</v>
       </c>
       <c r="E18">
-        <v>10.56563591033373</v>
+        <v>8.348848376976957</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.60119462896974</v>
+        <v>2.122653073790876</v>
       </c>
       <c r="H18">
-        <v>41.99588187581735</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.33965950686975</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.184933982248148</v>
+        <v>4.871708833168888</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.21112873269015</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.778067536143862</v>
       </c>
       <c r="M18">
-        <v>21.72779032592184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.89914192830508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46546969250992</v>
+        <v>23.86108315396204</v>
       </c>
       <c r="C19">
-        <v>24.68371825311077</v>
+        <v>10.19369569050897</v>
       </c>
       <c r="D19">
-        <v>9.343640606913453</v>
+        <v>9.780710505466276</v>
       </c>
       <c r="E19">
-        <v>10.52803139180575</v>
+        <v>8.341887353175204</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.41661546438532</v>
+        <v>2.124129599100666</v>
       </c>
       <c r="H19">
-        <v>41.8256731708825</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.21981353072649</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.181917294244165</v>
+        <v>4.871240810522333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.11639976554495</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.765864063016309</v>
       </c>
       <c r="M19">
-        <v>21.62211924187321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.60748981278161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.02377617221016</v>
+        <v>24.28039038881834</v>
       </c>
       <c r="C20">
-        <v>25.24057351413595</v>
+        <v>10.45803716518198</v>
       </c>
       <c r="D20">
-        <v>9.525933054230034</v>
+        <v>9.877876009441696</v>
       </c>
       <c r="E20">
-        <v>10.69744366156158</v>
+        <v>8.373514227737655</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.24615959384734</v>
+        <v>2.11747427340352</v>
       </c>
       <c r="H20">
-        <v>42.59140031491087</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.75963903009302</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.195776425697851</v>
+        <v>4.873383982296932</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.54219097391066</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.821485693507224</v>
       </c>
       <c r="M20">
-        <v>22.09586131032873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.91853738357911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.86244647236268</v>
+        <v>25.72488176856853</v>
       </c>
       <c r="C21">
-        <v>27.08017010246765</v>
+        <v>11.34398931823562</v>
       </c>
       <c r="D21">
-        <v>10.18657880694756</v>
+        <v>10.21245014458514</v>
       </c>
       <c r="E21">
-        <v>11.27052545361543</v>
+        <v>8.485397930712805</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.01755350241005</v>
+        <v>2.094856863137391</v>
       </c>
       <c r="H21">
-        <v>45.1628524154187</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>35.5842280558175</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.247622352488681</v>
+        <v>4.881309514254499</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.9666122184754</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.021396464086303</v>
       </c>
       <c r="M21">
-        <v>23.6584478364602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.30438710587305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.03970060696351</v>
+        <v>26.83333311403894</v>
       </c>
       <c r="C22">
-        <v>28.26277452203841</v>
+        <v>11.92448812802729</v>
       </c>
       <c r="D22">
-        <v>10.62971424643676</v>
+        <v>10.43789999832987</v>
       </c>
       <c r="E22">
-        <v>11.64885321039951</v>
+        <v>8.563182101734276</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.82168175983249</v>
+        <v>2.07979159459196</v>
       </c>
       <c r="H22">
-        <v>46.84656668223241</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>36.7877635368307</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.285864903691444</v>
+        <v>4.887136291218978</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.89658753020094</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.162715463534978</v>
       </c>
       <c r="M22">
-        <v>24.66093416692281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.16490301442165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.41338269620148</v>
+        <v>26.24096024313656</v>
       </c>
       <c r="C23">
-        <v>27.63313641145087</v>
+        <v>11.61430701281367</v>
       </c>
       <c r="D23">
-        <v>10.39381030631947</v>
+        <v>10.31689731131762</v>
       </c>
       <c r="E23">
-        <v>11.44651832422959</v>
+        <v>8.521207082746647</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.85909712358286</v>
+        <v>2.087864741125994</v>
       </c>
       <c r="H23">
-        <v>45.94734487055218</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.14417826516446</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.265025858038131</v>
+        <v>4.883959526396065</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.40006469184832</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.086246819478335</v>
       </c>
       <c r="M23">
-        <v>24.1273970331734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.63811213931709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.99326406953442</v>
+        <v>24.2572851946265</v>
       </c>
       <c r="C24">
-        <v>25.21012021790506</v>
+        <v>10.44353617610097</v>
       </c>
       <c r="D24">
-        <v>9.515939290906045</v>
+        <v>9.87251124644736</v>
       </c>
       <c r="E24">
-        <v>10.68812763516083</v>
+        <v>8.371757362392094</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.20067432760131</v>
+        <v>2.117840505723395</v>
       </c>
       <c r="H24">
-        <v>42.54936379011352</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>33.72995992240487</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.194996467427385</v>
+        <v>4.873263804036116</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.51883986366516</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.818384384936353</v>
       </c>
       <c r="M24">
-        <v>22.06996207098297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.84663085412166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.25792456847303</v>
+        <v>22.27810175714861</v>
       </c>
       <c r="C25">
-        <v>22.48952667061793</v>
+        <v>9.168214173744547</v>
       </c>
       <c r="D25">
-        <v>8.635657701993132</v>
+        <v>9.417957004439419</v>
       </c>
       <c r="E25">
-        <v>9.881227978208344</v>
+        <v>8.227711594375911</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.19694290487388</v>
+        <v>2.149514934053071</v>
       </c>
       <c r="H25">
-        <v>38.87399944003418</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>31.15618716435008</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.135584093450986</v>
+        <v>4.863864298693096</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.82118792926492</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.569467769525467</v>
       </c>
       <c r="M25">
-        <v>19.75216346579224</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>71.52563860140016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.86783248609604</v>
+        <v>14.06040964309222</v>
       </c>
       <c r="C2">
-        <v>8.202063202182783</v>
+        <v>8.175694613250611</v>
       </c>
       <c r="D2">
-        <v>9.101157919927671</v>
+        <v>7.119409623878268</v>
       </c>
       <c r="E2">
-        <v>8.133877783145307</v>
+        <v>29.37764895767503</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.172758940281928</v>
+        <v>63.8716824617703</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>17.63597198119552</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.858239638147308</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.78804871124199</v>
+        <v>12.60255618926196</v>
       </c>
       <c r="L2">
-        <v>8.415463911547798</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>66.77142238051947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.93942531900505</v>
+        <v>13.05036532536735</v>
       </c>
       <c r="C3">
-        <v>7.524057771384</v>
+        <v>7.657825696666568</v>
       </c>
       <c r="D3">
-        <v>8.896506477800163</v>
+        <v>6.610976810574811</v>
       </c>
       <c r="E3">
-        <v>8.076913558285433</v>
+        <v>27.18399707110078</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.188652720700855</v>
+        <v>60.51622596412783</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>17.0169667183816</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.855033767392148</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.11755508930396</v>
+        <v>11.75894459704119</v>
       </c>
       <c r="L3">
-        <v>8.32728073593754</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>63.47760005770654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.38307912059056</v>
+        <v>12.3997412170701</v>
       </c>
       <c r="C4">
-        <v>7.094607596916423</v>
+        <v>7.326999963412546</v>
       </c>
       <c r="D4">
-        <v>8.775552127663063</v>
+        <v>6.286074881961588</v>
       </c>
       <c r="E4">
-        <v>8.044928691503106</v>
+        <v>25.78045596888269</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.198532692607949</v>
+        <v>58.41472102171301</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>16.63777711271836</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.853310886906457</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.72043600027614</v>
+        <v>11.21693808718946</v>
       </c>
       <c r="L4">
-        <v>8.280523041260048</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>61.41883318275425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.15991544372456</v>
+        <v>12.12679524220303</v>
       </c>
       <c r="C5">
-        <v>6.916079469668062</v>
+        <v>7.188885851319432</v>
       </c>
       <c r="D5">
-        <v>8.727416210261245</v>
+        <v>6.169980422218762</v>
       </c>
       <c r="E5">
-        <v>8.032609962576457</v>
+        <v>25.19375444371121</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.202596028527077</v>
+        <v>57.54847411144036</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>16.4835471722275</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.852663712334008</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.56231000877274</v>
+        <v>10.9899178465413</v>
       </c>
       <c r="L5">
-        <v>8.263244529615161</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>60.57082020384692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.12307793942522</v>
+        <v>12.08099669071728</v>
       </c>
       <c r="C6">
-        <v>6.886216392800756</v>
+        <v>7.165751110391199</v>
       </c>
       <c r="D6">
-        <v>8.719492240383675</v>
+        <v>6.150573415503648</v>
       </c>
       <c r="E6">
-        <v>8.030606636369713</v>
+        <v>25.09542844293679</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.203273169394294</v>
+        <v>57.40405701521354</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>16.45795755127395</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.852559383013798</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.53627875762977</v>
+        <v>10.95184716820937</v>
       </c>
       <c r="L6">
-        <v>8.260480377340569</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>60.42946808694798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.3800548954064</v>
+        <v>12.39609199586266</v>
       </c>
       <c r="C7">
-        <v>7.092214437268411</v>
+        <v>7.325150748267031</v>
       </c>
       <c r="D7">
-        <v>8.774898311246925</v>
+        <v>6.284517932058101</v>
       </c>
       <c r="E7">
-        <v>8.044759706683633</v>
+        <v>25.77260385532575</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.198587333355111</v>
+        <v>58.40307765599668</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16.63569581954093</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.853301944928418</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.71828838648945</v>
+        <v>11.21390143595685</v>
       </c>
       <c r="L7">
-        <v>8.280282932749069</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>61.40743296261415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54492007359756</v>
+        <v>13.71837068602752</v>
       </c>
       <c r="C8">
-        <v>7.970877085820592</v>
+        <v>7.999754829265266</v>
       </c>
       <c r="D8">
-        <v>9.029598942508377</v>
+        <v>6.947298586679514</v>
       </c>
       <c r="E8">
-        <v>8.113592380037389</v>
+        <v>28.6327109686239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.178218260728429</v>
+        <v>62.72352240863091</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>17.42239183827286</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.857078889108847</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.55385154094074</v>
+        <v>12.31659589954239</v>
       </c>
       <c r="L8">
-        <v>8.383474268168044</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>65.6432491724748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.93698323039149</v>
+        <v>16.07732346101867</v>
       </c>
       <c r="C9">
-        <v>9.601065684780586</v>
+        <v>9.224634629982004</v>
       </c>
       <c r="D9">
-        <v>9.568111611097597</v>
+        <v>8.132790279503086</v>
       </c>
       <c r="E9">
-        <v>8.274185099163043</v>
+        <v>33.81774645039638</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.138886073137074</v>
+        <v>70.85701989410747</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>18.97028201588525</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.866798030593244</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.30876976763991</v>
+        <v>14.29408686911546</v>
       </c>
       <c r="L9">
-        <v>8.648463273500646</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>73.66858747491165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.76628753922443</v>
+        <v>17.67957151873488</v>
       </c>
       <c r="C10">
-        <v>10.76137600873389</v>
+        <v>10.07170827062794</v>
       </c>
       <c r="D10">
-        <v>9.990969667490134</v>
+        <v>8.935631174245319</v>
       </c>
       <c r="E10">
-        <v>8.410831585499368</v>
+        <v>37.41011587755628</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.109783427893856</v>
+        <v>76.62601195683533</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>20.11059658602631</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.875967891385264</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.03043720410616</v>
+        <v>15.64371822426357</v>
       </c>
       <c r="L10">
-        <v>8.887657404576347</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>79.42208180069193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.61804887422964</v>
+        <v>18.38309895412655</v>
       </c>
       <c r="C11">
-        <v>11.28656493299816</v>
+        <v>10.44756297831363</v>
       </c>
       <c r="D11">
-        <v>10.19039183882878</v>
+        <v>9.287411774854437</v>
       </c>
       <c r="E11">
-        <v>8.477886915708499</v>
+        <v>39.00833000755114</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.096336884284272</v>
+        <v>79.21010878256216</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>20.63079123958271</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.88076066512714</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>19.87445147436997</v>
+        <v>16.23786289933559</v>
       </c>
       <c r="L11">
-        <v>9.007842350082779</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>82.02072698546374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.99527226899621</v>
+        <v>18.64615722334199</v>
       </c>
       <c r="C12">
-        <v>11.48563418858647</v>
+        <v>10.58872846091691</v>
       </c>
       <c r="D12">
-        <v>10.26705705325805</v>
+        <v>9.418818522684266</v>
       </c>
       <c r="E12">
-        <v>8.504069785414261</v>
+        <v>39.6094779892076</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.091198163823374</v>
+        <v>80.18353610773531</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>20.82810955131833</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.882684416359369</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.19381975326991</v>
+        <v>16.46025854017972</v>
       </c>
       <c r="L12">
-        <v>9.055164714436117</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>83.00358756557331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.91338567695856</v>
+        <v>18.58964689334157</v>
       </c>
       <c r="C13">
-        <v>11.44274210838685</v>
+        <v>10.5583740459071</v>
       </c>
       <c r="D13">
-        <v>10.25049220558197</v>
+        <v>9.390595788991213</v>
       </c>
       <c r="E13">
-        <v>8.498394104761321</v>
+        <v>39.48017076858206</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.092307269731058</v>
+        <v>79.97410499576894</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>20.78559622121295</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.882264901870346</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.12503643062714</v>
+        <v>16.41247252163273</v>
       </c>
       <c r="L13">
-        <v>9.044889264992708</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.79193514325056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.64652849469135</v>
+        <v>18.40480627356382</v>
       </c>
       <c r="C14">
-        <v>11.30293492759191</v>
+        <v>10.45919876081479</v>
       </c>
       <c r="D14">
-        <v>10.19667521354244</v>
+        <v>9.298258069678527</v>
       </c>
       <c r="E14">
-        <v>8.480024593306382</v>
+        <v>39.05786112189353</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.095915166639389</v>
+        <v>79.29029092543071</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>20.64701718742471</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.880916624178378</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>19.90072653473907</v>
+        <v>16.25620990243184</v>
       </c>
       <c r="L14">
-        <v>9.011698160344951</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>82.10160117454981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.50509094643312</v>
+        <v>18.29115889163167</v>
       </c>
       <c r="C15">
-        <v>11.21734298787436</v>
+        <v>10.3983062428542</v>
       </c>
       <c r="D15">
-        <v>10.16386492202102</v>
+        <v>9.241467566056706</v>
       </c>
       <c r="E15">
-        <v>8.468878556136149</v>
+        <v>38.79869178152073</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.098118448298254</v>
+        <v>78.87079355667808</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>20.56218131341591</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.880105594014548</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>19.76332131653834</v>
+        <v>16.16016498500982</v>
       </c>
       <c r="L15">
-        <v>8.99160931083602</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.67864880996383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.71105969880152</v>
+        <v>17.63310838535559</v>
       </c>
       <c r="C16">
-        <v>10.72704669495933</v>
+        <v>10.0469708241184</v>
       </c>
       <c r="D16">
-        <v>9.978089553582233</v>
+        <v>8.912381602508299</v>
       </c>
       <c r="E16">
-        <v>8.40655486674906</v>
+        <v>37.30503564009191</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.110656642427588</v>
+        <v>76.45637692115649</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>20.07663921067592</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.875668741460442</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>18.97520536555034</v>
+        <v>15.60451168253338</v>
       </c>
       <c r="L16">
-        <v>8.880046109633566</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>79.25199635284741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.22929546688071</v>
+        <v>17.2231195945581</v>
       </c>
       <c r="C17">
-        <v>10.42595980425249</v>
+        <v>9.829140971575139</v>
       </c>
       <c r="D17">
-        <v>9.866013979166388</v>
+        <v>8.707142017731991</v>
       </c>
       <c r="E17">
-        <v>8.369631268995903</v>
+        <v>36.38024470485778</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.118284232676005</v>
+        <v>74.96530032156517</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>19.77921874685833</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.873118545656545</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.49053528946673</v>
+        <v>15.25873119539146</v>
       </c>
       <c r="L17">
-        <v>8.814633055083176</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>77.75947154274807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.95399822778094</v>
+        <v>16.98489972984015</v>
       </c>
       <c r="C18">
-        <v>10.25249356162319</v>
+        <v>9.702944363025276</v>
       </c>
       <c r="D18">
-        <v>9.802205832322986</v>
+        <v>8.587820475438356</v>
       </c>
       <c r="E18">
-        <v>8.348848376976957</v>
+        <v>35.8448667587612</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.122653073790876</v>
+        <v>74.10382879669638</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>19.60827741358254</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.871708833168888</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.21112873269015</v>
+        <v>15.05796538565035</v>
       </c>
       <c r="L18">
-        <v>8.778067536143862</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>76.89914192830508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.86108315396204</v>
+        <v>16.90382126178106</v>
       </c>
       <c r="C19">
-        <v>10.19369569050897</v>
+        <v>9.660055094870042</v>
       </c>
       <c r="D19">
-        <v>9.780710505466276</v>
+        <v>8.547197983776639</v>
       </c>
       <c r="E19">
-        <v>8.341887353175204</v>
+        <v>35.66297145751047</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.124129599100666</v>
+        <v>73.81147286811286</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>19.55041859226434</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.871240810522333</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.11639976554495</v>
+        <v>14.98965919426427</v>
       </c>
       <c r="L19">
-        <v>8.765864063016309</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>76.60748981278161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.28039038881834</v>
+        <v>17.26701054380269</v>
       </c>
       <c r="C20">
-        <v>10.45803716518198</v>
+        <v>9.85242182296269</v>
       </c>
       <c r="D20">
-        <v>9.877876009441696</v>
+        <v>8.729121022593453</v>
       </c>
       <c r="E20">
-        <v>8.373514227737655</v>
+        <v>36.47904120795836</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.11747427340352</v>
+        <v>75.12442172835971</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>19.81086580252697</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.873383982296932</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.54219097391066</v>
+        <v>15.2957331868882</v>
       </c>
       <c r="L20">
-        <v>8.821485693507224</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.91853738357911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.72488176856853</v>
+        <v>18.45918688104905</v>
       </c>
       <c r="C21">
-        <v>11.34398931823562</v>
+        <v>10.48835870773591</v>
       </c>
       <c r="D21">
-        <v>10.21245014458514</v>
+        <v>9.325427780798288</v>
       </c>
       <c r="E21">
-        <v>8.485397930712805</v>
+        <v>39.1820040628176</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.094856863137391</v>
+        <v>79.49127580299674</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>20.68771095297612</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.881309514254499</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.9666122184754</v>
+        <v>16.3021761844835</v>
       </c>
       <c r="L21">
-        <v>9.021396464086303</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>82.30438710587305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.83333311403894</v>
+        <v>19.21897207011737</v>
       </c>
       <c r="C22">
-        <v>11.92448812802729</v>
+        <v>10.89732589646973</v>
       </c>
       <c r="D22">
-        <v>10.43789999832987</v>
+        <v>9.70470063974131</v>
       </c>
       <c r="E22">
-        <v>8.563182101734276</v>
+        <v>40.92554562831285</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.07979159459196</v>
+        <v>82.31596768130601</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>21.26281280062994</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.887136291218978</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>20.89658753020094</v>
+        <v>16.94497509167132</v>
       </c>
       <c r="L22">
-        <v>9.162715463534978</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>85.16490301442165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.24096024313656</v>
+        <v>18.81512452379718</v>
       </c>
       <c r="C23">
-        <v>11.61430701281367</v>
+        <v>10.6795846594397</v>
       </c>
       <c r="D23">
-        <v>10.31689731131762</v>
+        <v>9.503184787247829</v>
       </c>
       <c r="E23">
-        <v>8.521207082746647</v>
+        <v>39.99666726665932</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.087864741125994</v>
+        <v>80.81076414542423</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>20.95562885324749</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.883959526396065</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.40006469184832</v>
+        <v>16.60317536356403</v>
       </c>
       <c r="L23">
-        <v>9.086246819478335</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>83.63811213931709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.2572851946265</v>
+        <v>17.2471752909176</v>
       </c>
       <c r="C24">
-        <v>10.44353617610097</v>
+        <v>9.841899565220938</v>
       </c>
       <c r="D24">
-        <v>9.87251124644736</v>
+        <v>8.719188455805837</v>
       </c>
       <c r="E24">
-        <v>8.371757362392094</v>
+        <v>36.43438692456222</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.117840505723395</v>
+        <v>75.05249616854771</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>19.79655802249</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.873263804036116</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.51883986366516</v>
+        <v>15.27901074747669</v>
       </c>
       <c r="L24">
-        <v>8.818384384936353</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.84663085412166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.27810175714861</v>
+        <v>15.46307953081576</v>
       </c>
       <c r="C25">
-        <v>9.168214173744547</v>
+        <v>8.903131842956048</v>
       </c>
       <c r="D25">
-        <v>9.417957004439419</v>
+        <v>7.824464241048982</v>
       </c>
       <c r="E25">
-        <v>8.227711594375911</v>
+        <v>32.45650076898735</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.149514934053071</v>
+        <v>68.69376723813181</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>18.55111550712029</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.863864298693096</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.82118792926492</v>
+        <v>13.77802501133207</v>
       </c>
       <c r="L25">
-        <v>8.569467769525467</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>71.52563860140016</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06040964309222</v>
+        <v>10.99600299506004</v>
       </c>
       <c r="C2">
-        <v>8.175694613250611</v>
+        <v>4.563921367383737</v>
       </c>
       <c r="D2">
-        <v>7.119409623878268</v>
+        <v>6.005904277717514</v>
       </c>
       <c r="E2">
-        <v>29.37764895767503</v>
+        <v>16.32460510360481</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.8716824617703</v>
+        <v>52.02437607013296</v>
       </c>
       <c r="H2">
-        <v>17.63597198119552</v>
+        <v>19.15561665238971</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.60255618926196</v>
+        <v>10.34339186840125</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.05036532536735</v>
+        <v>10.77918560200353</v>
       </c>
       <c r="C3">
-        <v>7.657825696666568</v>
+        <v>4.30842448648003</v>
       </c>
       <c r="D3">
-        <v>6.610976810574811</v>
+        <v>5.891730649253343</v>
       </c>
       <c r="E3">
-        <v>27.18399707110078</v>
+        <v>15.40753757723155</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.51622596412783</v>
+        <v>50.92497259606557</v>
       </c>
       <c r="H3">
-        <v>17.0169667183816</v>
+        <v>19.02101221183007</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.75894459704119</v>
+        <v>10.21577666198213</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.3997412170701</v>
+        <v>10.64852265580841</v>
       </c>
       <c r="C4">
-        <v>7.326999963412546</v>
+        <v>4.142733173993973</v>
       </c>
       <c r="D4">
-        <v>6.286074881961588</v>
+        <v>5.822420649956568</v>
       </c>
       <c r="E4">
-        <v>25.78045596888269</v>
+        <v>14.82120478240416</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>58.41472102171301</v>
+        <v>50.24663311047358</v>
       </c>
       <c r="H4">
-        <v>16.63777711271836</v>
+        <v>18.94047329172316</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.21693808718946</v>
+        <v>10.14093459050683</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.12679524220303</v>
+        <v>10.59598624054826</v>
       </c>
       <c r="C5">
-        <v>7.188885851319432</v>
+        <v>4.073010223510128</v>
       </c>
       <c r="D5">
-        <v>6.169980422218762</v>
+        <v>5.794417386109912</v>
       </c>
       <c r="E5">
-        <v>25.19375444371121</v>
+        <v>14.57669819818201</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>57.54847411144036</v>
+        <v>49.96970954448911</v>
       </c>
       <c r="H5">
-        <v>16.4835471722275</v>
+        <v>18.90820120737083</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.9899178465413</v>
+        <v>10.11136151351496</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08099669071728</v>
+        <v>10.58730810696556</v>
       </c>
       <c r="C6">
-        <v>7.165751110391199</v>
+        <v>4.061300263019662</v>
       </c>
       <c r="D6">
-        <v>6.150573415503648</v>
+        <v>5.789783247781333</v>
       </c>
       <c r="E6">
-        <v>25.09542844293679</v>
+        <v>14.53577066074851</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.40405701521354</v>
+        <v>49.9237066707941</v>
       </c>
       <c r="H6">
-        <v>16.45795755127395</v>
+        <v>18.90287606421656</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.95184716820937</v>
+        <v>10.10650801744212</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.39609199586266</v>
+        <v>10.64781113853636</v>
       </c>
       <c r="C7">
-        <v>7.325150748267031</v>
+        <v>4.141801761294735</v>
       </c>
       <c r="D7">
-        <v>6.284517932058101</v>
+        <v>5.822041956696085</v>
       </c>
       <c r="E7">
-        <v>25.77260385532575</v>
+        <v>14.81792943615548</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>58.40307765599668</v>
+        <v>50.24289997676073</v>
       </c>
       <c r="H7">
-        <v>16.63569581954093</v>
+        <v>18.94003581680762</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.21390143595685</v>
+        <v>10.14053195589641</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.71837068602752</v>
+        <v>10.92078719838816</v>
       </c>
       <c r="C8">
-        <v>7.999754829265266</v>
+        <v>4.477662909338251</v>
       </c>
       <c r="D8">
-        <v>6.947298586679514</v>
+        <v>5.966397584906487</v>
       </c>
       <c r="E8">
-        <v>28.6327109686239</v>
+        <v>16.0133750789141</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.72352240863091</v>
+        <v>51.64618554454717</v>
       </c>
       <c r="H8">
-        <v>17.42239183827286</v>
+        <v>19.1087784147281</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.31659589954239</v>
+        <v>10.2986866557343</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07732346101867</v>
+        <v>11.47168561601716</v>
       </c>
       <c r="C9">
-        <v>9.224634629982004</v>
+        <v>5.065915032788715</v>
       </c>
       <c r="D9">
-        <v>8.132790279503086</v>
+        <v>6.253953647895713</v>
       </c>
       <c r="E9">
-        <v>33.81774645039638</v>
+        <v>18.19302772853116</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.85701989410747</v>
+        <v>54.35757779880566</v>
       </c>
       <c r="H9">
-        <v>18.97028201588525</v>
+        <v>19.45558566185493</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.29408686911546</v>
+        <v>10.63476283632033</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67957151873488</v>
+        <v>11.88073148325075</v>
       </c>
       <c r="C10">
-        <v>10.07170827062794</v>
+        <v>5.454862089168173</v>
       </c>
       <c r="D10">
-        <v>8.935631174245319</v>
+        <v>6.465566678072547</v>
       </c>
       <c r="E10">
-        <v>37.41011587755628</v>
+        <v>19.82059442274585</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.62601195683533</v>
+        <v>56.30674924880827</v>
       </c>
       <c r="H10">
-        <v>20.11059658602631</v>
+        <v>19.71891790440569</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.64371822426357</v>
+        <v>10.8947716826444</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.38309895412655</v>
+        <v>12.06669782233134</v>
       </c>
       <c r="C11">
-        <v>10.44756297831363</v>
+        <v>5.622392039117742</v>
       </c>
       <c r="D11">
-        <v>9.287411774854437</v>
+        <v>6.561428865926168</v>
       </c>
       <c r="E11">
-        <v>39.00833000755114</v>
+        <v>20.51981398594281</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.21010878256216</v>
+        <v>57.18059117984208</v>
       </c>
       <c r="H11">
-        <v>20.63079123958271</v>
+        <v>19.84030492199061</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.23786289933559</v>
+        <v>11.01530473896904</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64615722334199</v>
+        <v>12.13701966981779</v>
       </c>
       <c r="C12">
-        <v>10.58872846091691</v>
+        <v>5.684479048460781</v>
       </c>
       <c r="D12">
-        <v>9.418818522684266</v>
+        <v>6.59763370917563</v>
       </c>
       <c r="E12">
-        <v>39.6094779892076</v>
+        <v>20.77870875923922</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.18353610773531</v>
+        <v>57.50936876830872</v>
       </c>
       <c r="H12">
-        <v>20.82810955131833</v>
+        <v>19.88647736778803</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.46025854017972</v>
+        <v>11.06122166482949</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.58964689334157</v>
+        <v>12.12188031615676</v>
       </c>
       <c r="C13">
-        <v>10.5583740459071</v>
+        <v>5.671167668151226</v>
       </c>
       <c r="D13">
-        <v>9.390595788991213</v>
+        <v>6.589841211792641</v>
       </c>
       <c r="E13">
-        <v>39.48017076858206</v>
+        <v>20.72321228885398</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>79.97410499576894</v>
+        <v>57.43865952161011</v>
       </c>
       <c r="H13">
-        <v>20.78559622121295</v>
+        <v>19.87652453290089</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.41247252163273</v>
+        <v>11.0513212590451</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.40480627356382</v>
+        <v>12.07248570242266</v>
       </c>
       <c r="C14">
-        <v>10.45919876081479</v>
+        <v>5.627527088492402</v>
       </c>
       <c r="D14">
-        <v>9.298258069678527</v>
+        <v>6.564409598637668</v>
       </c>
       <c r="E14">
-        <v>39.05786112189353</v>
+        <v>20.54123114611755</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.29029092543071</v>
+        <v>57.20768408806168</v>
       </c>
       <c r="H14">
-        <v>20.64701718742471</v>
+        <v>19.84409956907605</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.25620990243184</v>
+        <v>11.01907715433594</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.29115889163167</v>
+        <v>12.04221469886689</v>
       </c>
       <c r="C15">
-        <v>10.3983062428542</v>
+        <v>5.600619784816052</v>
       </c>
       <c r="D15">
-        <v>9.241467566056706</v>
+        <v>6.548818382885798</v>
       </c>
       <c r="E15">
-        <v>38.79869178152073</v>
+        <v>20.42899715684861</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.87079355667808</v>
+        <v>57.06591990256474</v>
       </c>
       <c r="H15">
-        <v>20.56218131341591</v>
+        <v>19.8242644362501</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.16016498500982</v>
+        <v>10.99936086119466</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.63310838535559</v>
+        <v>11.86856867099494</v>
       </c>
       <c r="C16">
-        <v>10.0469708241184</v>
+        <v>5.443724289835024</v>
       </c>
       <c r="D16">
-        <v>8.912381602508299</v>
+        <v>6.459290456891405</v>
       </c>
       <c r="E16">
-        <v>37.30503564009191</v>
+        <v>19.77407339989368</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.45637692115649</v>
+        <v>56.24935878259636</v>
       </c>
       <c r="H16">
-        <v>20.07663921067592</v>
+        <v>19.71101507714534</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.60451168253338</v>
+        <v>10.88693559640306</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.2231195945581</v>
+        <v>11.76195326366401</v>
       </c>
       <c r="C17">
-        <v>9.829140971575139</v>
+        <v>5.345064442324281</v>
       </c>
       <c r="D17">
-        <v>8.707142017731991</v>
+        <v>6.404237239367319</v>
       </c>
       <c r="E17">
-        <v>36.38024470485778</v>
+        <v>19.36177992014701</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.96530032156517</v>
+        <v>55.74492997076423</v>
       </c>
       <c r="H17">
-        <v>19.77921874685833</v>
+        <v>19.64193230759174</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.25873119539146</v>
+        <v>10.81850759325214</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.98489972984015</v>
+        <v>11.70062523524595</v>
       </c>
       <c r="C18">
-        <v>9.702944363025276</v>
+        <v>5.287432691546303</v>
       </c>
       <c r="D18">
-        <v>8.587820475438356</v>
+        <v>6.372536459917042</v>
       </c>
       <c r="E18">
-        <v>35.8448667587612</v>
+        <v>19.12076251091425</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>74.10382879669638</v>
+        <v>55.45360240605704</v>
       </c>
       <c r="H18">
-        <v>19.60827741358254</v>
+        <v>19.60234938384579</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.05796538565035</v>
+        <v>10.77936475319018</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.90382126178106</v>
+        <v>11.67986226322789</v>
       </c>
       <c r="C19">
-        <v>9.660055094870042</v>
+        <v>5.267767578962614</v>
       </c>
       <c r="D19">
-        <v>8.547197983776639</v>
+        <v>6.361798200777918</v>
       </c>
       <c r="E19">
-        <v>35.66297145751047</v>
+        <v>19.03849117670236</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.81147286811286</v>
+        <v>55.35476774380164</v>
       </c>
       <c r="H19">
-        <v>19.55041859226434</v>
+        <v>19.588974047095</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.98965919426427</v>
+        <v>10.76615015225729</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.26701054380269</v>
+        <v>11.77330386176831</v>
       </c>
       <c r="C20">
-        <v>9.85242182296269</v>
+        <v>5.35565857725477</v>
       </c>
       <c r="D20">
-        <v>8.729121022593453</v>
+        <v>6.410101719024267</v>
       </c>
       <c r="E20">
-        <v>36.47904120795836</v>
+        <v>19.40607027156156</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>75.12442172835971</v>
+        <v>55.79875288193972</v>
       </c>
       <c r="H20">
-        <v>19.81086580252697</v>
+        <v>19.64927076057866</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.2957331868882</v>
+        <v>10.82576997170259</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.45918688104905</v>
+        <v>12.08699744543571</v>
       </c>
       <c r="C21">
-        <v>10.48835870773591</v>
+        <v>5.640382101339126</v>
       </c>
       <c r="D21">
-        <v>9.325427780798288</v>
+        <v>6.571882383646852</v>
       </c>
       <c r="E21">
-        <v>39.1820040628176</v>
+        <v>20.59484284057877</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.49127580299674</v>
+        <v>57.27558705393569</v>
       </c>
       <c r="H21">
-        <v>20.68771095297612</v>
+        <v>19.85361817181406</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.3021761844835</v>
+        <v>11.02854100147479</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.21897207011737</v>
+        <v>12.29139828375079</v>
       </c>
       <c r="C22">
-        <v>10.89732589646973</v>
+        <v>5.818580029053991</v>
       </c>
       <c r="D22">
-        <v>9.70470063974131</v>
+        <v>6.677038935911522</v>
       </c>
       <c r="E22">
-        <v>40.92554562831285</v>
+        <v>21.33749141913158</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.31596768130601</v>
+        <v>58.22826607900848</v>
       </c>
       <c r="H22">
-        <v>21.26281280062994</v>
+        <v>19.98835942651901</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.94497509167132</v>
+        <v>11.16263580324891</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.81512452379718</v>
+        <v>12.18238858576808</v>
       </c>
       <c r="C23">
-        <v>10.6795846594397</v>
+        <v>5.724193810338394</v>
       </c>
       <c r="D23">
-        <v>9.503184787247829</v>
+        <v>6.620979813017523</v>
       </c>
       <c r="E23">
-        <v>39.99666726665932</v>
+        <v>20.94425110825627</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.81076414542423</v>
+        <v>57.72103669266816</v>
       </c>
       <c r="H23">
-        <v>20.95562885324749</v>
+        <v>19.91634466468075</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.60317536356403</v>
+        <v>11.09093953946714</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.2471752909176</v>
+        <v>11.76817235398795</v>
       </c>
       <c r="C24">
-        <v>9.841899565220938</v>
+        <v>5.350871806093598</v>
       </c>
       <c r="D24">
-        <v>8.719188455805837</v>
+        <v>6.40745054045638</v>
       </c>
       <c r="E24">
-        <v>36.43438692456222</v>
+        <v>19.3860590174495</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>75.05249616854771</v>
+        <v>55.77442364852945</v>
       </c>
       <c r="H24">
-        <v>19.79655802249</v>
+        <v>19.64595262768627</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.27901074747669</v>
+        <v>10.8224860318737</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.46307953081576</v>
+        <v>11.32152948090703</v>
       </c>
       <c r="C25">
-        <v>8.903131842956048</v>
+        <v>4.914356355963855</v>
       </c>
       <c r="D25">
-        <v>7.824464241048982</v>
+        <v>6.175933139834844</v>
       </c>
       <c r="E25">
-        <v>32.45650076898735</v>
+        <v>17.60380151682253</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.69376723813181</v>
+        <v>53.63033987670057</v>
       </c>
       <c r="H25">
-        <v>18.55111550712029</v>
+        <v>19.36017935946257</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.77802501133207</v>
+        <v>10.54134518689225</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.99600299506004</v>
+        <v>14.06040964309226</v>
       </c>
       <c r="C2">
-        <v>4.563921367383737</v>
+        <v>8.175694613250528</v>
       </c>
       <c r="D2">
-        <v>6.005904277717514</v>
+        <v>7.119409623878294</v>
       </c>
       <c r="E2">
-        <v>16.32460510360481</v>
+        <v>29.37764895767513</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>52.02437607013296</v>
+        <v>63.8716824617702</v>
       </c>
       <c r="H2">
-        <v>19.15561665238971</v>
+        <v>17.63597198119547</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.34339186840125</v>
+        <v>12.60255618926198</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.77918560200353</v>
+        <v>13.05036532536732</v>
       </c>
       <c r="C3">
-        <v>4.30842448648003</v>
+        <v>7.657825696666569</v>
       </c>
       <c r="D3">
-        <v>5.891730649253343</v>
+        <v>6.610976810574861</v>
       </c>
       <c r="E3">
-        <v>15.40753757723155</v>
+        <v>27.18399707110083</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.92497259606557</v>
+        <v>60.5162259641279</v>
       </c>
       <c r="H3">
-        <v>19.02101221183007</v>
+        <v>17.0169667183816</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.21577666198213</v>
+        <v>11.75894459704116</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.64852265580841</v>
+        <v>12.39974121707002</v>
       </c>
       <c r="C4">
-        <v>4.142733173993973</v>
+        <v>7.326999963412336</v>
       </c>
       <c r="D4">
-        <v>5.822420649956568</v>
+        <v>6.286074881961581</v>
       </c>
       <c r="E4">
-        <v>14.82120478240416</v>
+        <v>25.78045596888268</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>50.24663311047358</v>
+        <v>58.41472102171304</v>
       </c>
       <c r="H4">
-        <v>18.94047329172316</v>
+        <v>16.63777711271843</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.14093459050683</v>
+        <v>11.21693808718935</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.59598624054826</v>
+        <v>12.12679524220306</v>
       </c>
       <c r="C5">
-        <v>4.073010223510128</v>
+        <v>7.188885851319432</v>
       </c>
       <c r="D5">
-        <v>5.794417386109912</v>
+        <v>6.169980422218766</v>
       </c>
       <c r="E5">
-        <v>14.57669819818201</v>
+        <v>25.19375444371116</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.96970954448911</v>
+        <v>57.54847411144042</v>
       </c>
       <c r="H5">
-        <v>18.90820120737083</v>
+        <v>16.4835471722275</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.11136151351496</v>
+        <v>10.98991784654127</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.58730810696556</v>
+        <v>12.08099669071731</v>
       </c>
       <c r="C6">
-        <v>4.061300263019662</v>
+        <v>7.16575111039114</v>
       </c>
       <c r="D6">
-        <v>5.789783247781333</v>
+        <v>6.150573415503699</v>
       </c>
       <c r="E6">
-        <v>14.53577066074851</v>
+        <v>25.09542844293676</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.9237066707941</v>
+        <v>57.40405701521335</v>
       </c>
       <c r="H6">
-        <v>18.90287606421656</v>
+        <v>16.45795755127387</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.10650801744212</v>
+        <v>10.95184716820943</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64781113853636</v>
+        <v>12.3960919958627</v>
       </c>
       <c r="C7">
-        <v>4.141801761294735</v>
+        <v>7.325150748266937</v>
       </c>
       <c r="D7">
-        <v>5.822041956696085</v>
+        <v>6.284517932058085</v>
       </c>
       <c r="E7">
-        <v>14.81792943615548</v>
+        <v>25.77260385532565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>50.24289997676073</v>
+        <v>58.40307765599672</v>
       </c>
       <c r="H7">
-        <v>18.94003581680762</v>
+        <v>16.63569581954094</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.14053195589641</v>
+        <v>11.21390143595685</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92078719838816</v>
+        <v>13.71837068602762</v>
       </c>
       <c r="C8">
-        <v>4.477662909338251</v>
+        <v>7.999754829265237</v>
       </c>
       <c r="D8">
-        <v>5.966397584906487</v>
+        <v>6.947298586679445</v>
       </c>
       <c r="E8">
-        <v>16.0133750789141</v>
+        <v>28.63271096862389</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.64618554454717</v>
+        <v>62.72352240863109</v>
       </c>
       <c r="H8">
-        <v>19.1087784147281</v>
+        <v>17.42239183827282</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.2986866557343</v>
+        <v>12.31659589954251</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.47168561601716</v>
+        <v>16.07732346101868</v>
       </c>
       <c r="C9">
-        <v>5.065915032788715</v>
+        <v>9.224634629981821</v>
       </c>
       <c r="D9">
-        <v>6.253953647895713</v>
+        <v>8.132790279503043</v>
       </c>
       <c r="E9">
-        <v>18.19302772853116</v>
+        <v>33.81774645039644</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.35757779880566</v>
+        <v>70.85701989410718</v>
       </c>
       <c r="H9">
-        <v>19.45558566185493</v>
+        <v>18.97028201588518</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.63476283632033</v>
+        <v>14.29408686911545</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.88073148325075</v>
+        <v>17.67957151873487</v>
       </c>
       <c r="C10">
-        <v>5.454862089168173</v>
+        <v>10.07170827062786</v>
       </c>
       <c r="D10">
-        <v>6.465566678072547</v>
+        <v>8.935631174245174</v>
       </c>
       <c r="E10">
-        <v>19.82059442274585</v>
+        <v>37.41011587755624</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.30674924880827</v>
+        <v>76.62601195683524</v>
       </c>
       <c r="H10">
-        <v>19.71891790440569</v>
+        <v>20.11059658602634</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.8947716826444</v>
+        <v>15.64371822426353</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.06669782233134</v>
+        <v>18.38309895412668</v>
       </c>
       <c r="C11">
-        <v>5.622392039117742</v>
+        <v>10.44756297831386</v>
       </c>
       <c r="D11">
-        <v>6.561428865926168</v>
+        <v>9.287411774854625</v>
       </c>
       <c r="E11">
-        <v>20.51981398594281</v>
+        <v>39.00833000755122</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.18059117984208</v>
+        <v>79.2101087825627</v>
       </c>
       <c r="H11">
-        <v>19.84030492199061</v>
+        <v>20.63079123958277</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.01530473896904</v>
+        <v>16.23786289933574</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.13701966981779</v>
+        <v>18.6461572233421</v>
       </c>
       <c r="C12">
-        <v>5.684479048460781</v>
+        <v>10.58872846091681</v>
       </c>
       <c r="D12">
-        <v>6.59763370917563</v>
+        <v>9.418818522684298</v>
       </c>
       <c r="E12">
-        <v>20.77870875923922</v>
+        <v>39.60947798920763</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>57.50936876830872</v>
+        <v>80.18353610773555</v>
       </c>
       <c r="H12">
-        <v>19.88647736778803</v>
+        <v>20.82810955131836</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.06122166482949</v>
+        <v>16.4602585401798</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.12188031615676</v>
+        <v>18.58964689334156</v>
       </c>
       <c r="C13">
-        <v>5.671167668151226</v>
+        <v>10.55837404590691</v>
       </c>
       <c r="D13">
-        <v>6.589841211792641</v>
+        <v>9.390595788991298</v>
       </c>
       <c r="E13">
-        <v>20.72321228885398</v>
+        <v>39.48017076858214</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.43865952161011</v>
+        <v>79.97410499576905</v>
       </c>
       <c r="H13">
-        <v>19.87652453290089</v>
+        <v>20.78559622121298</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.0513212590451</v>
+        <v>16.41247252163267</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.07248570242266</v>
+        <v>18.40480627356392</v>
       </c>
       <c r="C14">
-        <v>5.627527088492402</v>
+        <v>10.45919876081488</v>
       </c>
       <c r="D14">
-        <v>6.564409598637668</v>
+        <v>9.298258069678466</v>
       </c>
       <c r="E14">
-        <v>20.54123114611755</v>
+        <v>39.05786112189352</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.20768408806168</v>
+        <v>79.29029092543074</v>
       </c>
       <c r="H14">
-        <v>19.84409956907605</v>
+        <v>20.6470171874247</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.01907715433594</v>
+        <v>16.2562099024319</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.04221469886689</v>
+        <v>18.29115889163157</v>
       </c>
       <c r="C15">
-        <v>5.600619784816052</v>
+        <v>10.39830624285421</v>
       </c>
       <c r="D15">
-        <v>6.548818382885798</v>
+        <v>9.241467566056746</v>
       </c>
       <c r="E15">
-        <v>20.42899715684861</v>
+        <v>38.79869178152063</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.06591990256474</v>
+        <v>78.87079355667784</v>
       </c>
       <c r="H15">
-        <v>19.8242644362501</v>
+        <v>20.5621813134159</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.99936086119466</v>
+        <v>16.16016498500975</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.86856867099494</v>
+        <v>17.6331083853556</v>
       </c>
       <c r="C16">
-        <v>5.443724289835024</v>
+        <v>10.0469708241185</v>
       </c>
       <c r="D16">
-        <v>6.459290456891405</v>
+        <v>8.912381602508169</v>
       </c>
       <c r="E16">
-        <v>19.77407339989368</v>
+        <v>37.30503564009184</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.24935878259636</v>
+        <v>76.45637692115673</v>
       </c>
       <c r="H16">
-        <v>19.71101507714534</v>
+        <v>20.07663921067588</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.88693559640306</v>
+        <v>15.60451168253343</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.76195326366401</v>
+        <v>17.22311959455811</v>
       </c>
       <c r="C17">
-        <v>5.345064442324281</v>
+        <v>9.829140971575114</v>
       </c>
       <c r="D17">
-        <v>6.404237239367319</v>
+        <v>8.707142017731877</v>
       </c>
       <c r="E17">
-        <v>19.36177992014701</v>
+        <v>36.38024470485771</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.74492997076423</v>
+        <v>74.96530032156497</v>
       </c>
       <c r="H17">
-        <v>19.64193230759174</v>
+        <v>19.77921874685829</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.81850759325214</v>
+        <v>15.25873119539149</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.70062523524595</v>
+        <v>16.98489972984014</v>
       </c>
       <c r="C18">
-        <v>5.287432691546303</v>
+        <v>9.702944363025178</v>
       </c>
       <c r="D18">
-        <v>6.372536459917042</v>
+        <v>8.587820475438289</v>
       </c>
       <c r="E18">
-        <v>19.12076251091425</v>
+        <v>35.84486675876126</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.45360240605704</v>
+        <v>74.10382879669666</v>
       </c>
       <c r="H18">
-        <v>19.60234938384579</v>
+        <v>19.60827741358261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.77936475319018</v>
+        <v>15.05796538565035</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.67986226322789</v>
+        <v>16.90382126178105</v>
       </c>
       <c r="C19">
-        <v>5.267767578962614</v>
+        <v>9.660055094870101</v>
       </c>
       <c r="D19">
-        <v>6.361798200777918</v>
+        <v>8.547197983776627</v>
       </c>
       <c r="E19">
-        <v>19.03849117670236</v>
+        <v>35.66297145751064</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.35476774380164</v>
+        <v>73.81147286811314</v>
       </c>
       <c r="H19">
-        <v>19.588974047095</v>
+        <v>19.5504185922644</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.76615015225729</v>
+        <v>14.98965919426432</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.77330386176831</v>
+        <v>17.26701054380262</v>
       </c>
       <c r="C20">
-        <v>5.35565857725477</v>
+        <v>9.852421822962796</v>
       </c>
       <c r="D20">
-        <v>6.410101719024267</v>
+        <v>8.729121022593585</v>
       </c>
       <c r="E20">
-        <v>19.40607027156156</v>
+        <v>36.47904120795837</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.79875288193972</v>
+        <v>75.12442172835955</v>
       </c>
       <c r="H20">
-        <v>19.64927076057866</v>
+        <v>19.81086580252692</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.82576997170259</v>
+        <v>15.29573318688817</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.08699744543571</v>
+        <v>18.45918688104918</v>
       </c>
       <c r="C21">
-        <v>5.640382101339126</v>
+        <v>10.48835870773589</v>
       </c>
       <c r="D21">
-        <v>6.571882383646852</v>
+        <v>9.325427780798346</v>
       </c>
       <c r="E21">
-        <v>20.59484284057877</v>
+        <v>39.18200406281762</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.27558705393569</v>
+        <v>79.49127580299667</v>
       </c>
       <c r="H21">
-        <v>19.85361817181406</v>
+        <v>20.68771095297605</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.02854100147479</v>
+        <v>16.30217618448357</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.29139828375079</v>
+        <v>19.2189720701173</v>
       </c>
       <c r="C22">
-        <v>5.818580029053991</v>
+        <v>10.89732589646984</v>
       </c>
       <c r="D22">
-        <v>6.677038935911522</v>
+        <v>9.704700639741382</v>
       </c>
       <c r="E22">
-        <v>21.33749141913158</v>
+        <v>40.9255456283128</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.22826607900848</v>
+        <v>82.31596768130606</v>
       </c>
       <c r="H22">
-        <v>19.98835942651901</v>
+        <v>21.26281280062999</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.16263580324891</v>
+        <v>16.94497509167127</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.18238858576808</v>
+        <v>18.81512452379713</v>
       </c>
       <c r="C23">
-        <v>5.724193810338394</v>
+        <v>10.67958465943967</v>
       </c>
       <c r="D23">
-        <v>6.620979813017523</v>
+        <v>9.503184787247831</v>
       </c>
       <c r="E23">
-        <v>20.94425110825627</v>
+        <v>39.99666726665929</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.72103669266816</v>
+        <v>80.81076414542416</v>
       </c>
       <c r="H23">
-        <v>19.91634466468075</v>
+        <v>20.95562885324752</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.09093953946714</v>
+        <v>16.60317536356394</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.76817235398795</v>
+        <v>17.24717529091756</v>
       </c>
       <c r="C24">
-        <v>5.350871806093598</v>
+        <v>9.841899565221043</v>
       </c>
       <c r="D24">
-        <v>6.40745054045638</v>
+        <v>8.719188455805806</v>
       </c>
       <c r="E24">
-        <v>19.3860590174495</v>
+        <v>36.43438692456204</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.77442364852945</v>
+        <v>75.05249616854726</v>
       </c>
       <c r="H24">
-        <v>19.64595262768627</v>
+        <v>19.79655802248992</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.8224860318737</v>
+        <v>15.2790107474767</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.32152948090703</v>
+        <v>15.46307953081588</v>
       </c>
       <c r="C25">
-        <v>4.914356355963855</v>
+        <v>8.903131842955785</v>
       </c>
       <c r="D25">
-        <v>6.175933139834844</v>
+        <v>7.82446424104896</v>
       </c>
       <c r="E25">
-        <v>17.60380151682253</v>
+        <v>32.45650076898733</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.63033987670057</v>
+        <v>68.69376723813178</v>
       </c>
       <c r="H25">
-        <v>19.36017935946257</v>
+        <v>18.55111550712027</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.54134518689225</v>
+        <v>13.77802501133214</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06040964309226</v>
+        <v>13.78979223371277</v>
       </c>
       <c r="C2">
-        <v>8.175694613250528</v>
+        <v>7.426731378577764</v>
       </c>
       <c r="D2">
-        <v>7.119409623878294</v>
+        <v>9.535544716453623</v>
       </c>
       <c r="E2">
-        <v>29.37764895767513</v>
+        <v>8.810445336622383</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.8716824617702</v>
+        <v>27.67008597756443</v>
       </c>
       <c r="H2">
-        <v>17.63597198119547</v>
+        <v>3.375276048842695</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.921825900526087</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.60376953607553</v>
       </c>
       <c r="K2">
-        <v>12.60255618926198</v>
+        <v>17.49198813337531</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.004813308628829</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.39306985859304</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.4938196785131</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>17.74378662880303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.05036532536732</v>
+        <v>12.91288924939721</v>
       </c>
       <c r="C3">
-        <v>7.657825696666569</v>
+        <v>7.244182416441657</v>
       </c>
       <c r="D3">
-        <v>6.610976810574861</v>
+        <v>9.256405603632684</v>
       </c>
       <c r="E3">
-        <v>27.18399707110083</v>
+        <v>8.635786915352098</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.5162259641279</v>
+        <v>27.49999756989065</v>
       </c>
       <c r="H3">
-        <v>17.0169667183816</v>
+        <v>3.573355096581869</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.069636781684059</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.64288526267643</v>
       </c>
       <c r="K3">
-        <v>11.75894459704116</v>
+        <v>17.5663878670595</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.954607314587975</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.75729423313814</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.276478957371349</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>17.75509719107821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39974121707002</v>
+        <v>12.34239178158486</v>
       </c>
       <c r="C4">
-        <v>7.326999963412336</v>
+        <v>7.130145401104275</v>
       </c>
       <c r="D4">
-        <v>6.286074881961581</v>
+        <v>9.082602152438126</v>
       </c>
       <c r="E4">
-        <v>25.78045596888268</v>
+        <v>8.526137493602066</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>58.41472102171304</v>
+        <v>27.40494406002346</v>
       </c>
       <c r="H4">
-        <v>16.63777711271843</v>
+        <v>3.699570489376996</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.164417451532136</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.6694348582105</v>
       </c>
       <c r="K4">
-        <v>11.21693808718935</v>
+        <v>17.61556443043824</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.922575272091464</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.34694363365202</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.14067974990953</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>17.76726607071339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.12679524220306</v>
+        <v>12.09977147390259</v>
       </c>
       <c r="C5">
-        <v>7.188885851319432</v>
+        <v>7.087095066792609</v>
       </c>
       <c r="D5">
-        <v>6.169980422218766</v>
+        <v>9.010240802336426</v>
       </c>
       <c r="E5">
-        <v>25.19375444371116</v>
+        <v>8.479359103308532</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>57.54847411144042</v>
+        <v>27.35618056534748</v>
       </c>
       <c r="H5">
-        <v>16.4835471722275</v>
+        <v>3.752481867804121</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.206454186015312</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.67877086346903</v>
       </c>
       <c r="K5">
-        <v>10.98991784654127</v>
+        <v>17.63116259931649</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.908920502822264</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.17639619046226</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.086019432952277</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>17.76833259775572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08099669071731</v>
+        <v>12.05642663219515</v>
       </c>
       <c r="C6">
-        <v>7.16575111039114</v>
+        <v>7.084717256044369</v>
       </c>
       <c r="D6">
-        <v>6.150573415503699</v>
+        <v>8.996944715136957</v>
       </c>
       <c r="E6">
-        <v>25.09542844293676</v>
+        <v>8.46969436473772</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.40405701521335</v>
+        <v>27.33312563929382</v>
       </c>
       <c r="H6">
-        <v>16.45795755127387</v>
+        <v>3.76171477606326</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.216552247562014</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.67778147142823</v>
       </c>
       <c r="K6">
-        <v>10.95184716820943</v>
+        <v>17.6273258484673</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.906274869180857</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.14977060654467</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.078394977177117</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>17.76226092368444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3960919958627</v>
+        <v>12.33227819747577</v>
       </c>
       <c r="C7">
-        <v>7.325150748266937</v>
+        <v>7.142614471643367</v>
       </c>
       <c r="D7">
-        <v>6.284517932058085</v>
+        <v>9.078246325160674</v>
       </c>
       <c r="E7">
-        <v>25.77260385532565</v>
+        <v>8.520465676648303</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>58.40307765599672</v>
+        <v>27.36318918388043</v>
       </c>
       <c r="H7">
-        <v>16.63569581954094</v>
+        <v>3.701286581048073</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.173058946189927</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.66253919918683</v>
       </c>
       <c r="K7">
-        <v>11.21390143595685</v>
+        <v>17.59810974211235</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.921425082175106</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.35000470314371</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.143954416473099</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17.7500435381787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.71837068602762</v>
+        <v>13.48566611357584</v>
       </c>
       <c r="C8">
-        <v>7.999754829265237</v>
+        <v>7.381253396026853</v>
       </c>
       <c r="D8">
-        <v>6.947298586679445</v>
+        <v>9.435556240955444</v>
       </c>
       <c r="E8">
-        <v>28.63271096862389</v>
+        <v>8.744283061120925</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.72352240863109</v>
+        <v>27.55584975775739</v>
       </c>
       <c r="H8">
-        <v>17.42239183827282</v>
+        <v>3.443876906088434</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.982177255406182</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.60752237498781</v>
       </c>
       <c r="K8">
-        <v>12.31659589954251</v>
+        <v>17.49370079174078</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.986534501912606</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.18469449494709</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.424535891848043</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>17.72399505670891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07732346101868</v>
+        <v>15.52669439156657</v>
       </c>
       <c r="C9">
-        <v>9.224634629981821</v>
+        <v>7.810437119907367</v>
       </c>
       <c r="D9">
-        <v>8.132790279503043</v>
+        <v>10.1189837744178</v>
       </c>
       <c r="E9">
-        <v>33.81774645039644</v>
+        <v>9.171299492650363</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.85701989410718</v>
+        <v>28.08199714379982</v>
       </c>
       <c r="H9">
-        <v>18.97028201588518</v>
+        <v>2.973248712199598</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.626186394873513</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.53269829174696</v>
       </c>
       <c r="K9">
-        <v>14.29408686911545</v>
+        <v>17.34885303239912</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.106439280264898</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.65188505589561</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.946844291816836</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17.74630456981351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67957151873487</v>
+        <v>16.86905937727199</v>
       </c>
       <c r="C10">
-        <v>10.07170827062786</v>
+        <v>8.145981643593204</v>
       </c>
       <c r="D10">
-        <v>8.935631174245174</v>
+        <v>10.53530396205002</v>
       </c>
       <c r="E10">
-        <v>37.41011587755624</v>
+        <v>9.372630752254581</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.62601195683524</v>
+        <v>28.31005568348217</v>
       </c>
       <c r="H10">
-        <v>20.11059658602634</v>
+        <v>2.674808470636015</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.393120050158991</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.45539441505608</v>
       </c>
       <c r="K10">
-        <v>15.64371822426353</v>
+        <v>17.18148958275133</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.17777133550018</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.63936166184958</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.237675610820903</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17.70282172391106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.38309895412668</v>
+        <v>17.32881580234191</v>
       </c>
       <c r="C11">
-        <v>10.44756297831386</v>
+        <v>8.542927186308669</v>
       </c>
       <c r="D11">
-        <v>9.287411774854625</v>
+        <v>10.14951790543344</v>
       </c>
       <c r="E11">
-        <v>39.00833000755122</v>
+        <v>8.669405265514715</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.2101087825627</v>
+        <v>26.74905139580023</v>
       </c>
       <c r="H11">
-        <v>20.63079123958277</v>
+        <v>3.415802241588393</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.346750460627205</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.13498564470152</v>
       </c>
       <c r="K11">
-        <v>16.23786289933574</v>
+        <v>16.48216314511584</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.158763491696281</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.13958542722021</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.700379237498031</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.97767392739128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.6461572233421</v>
+        <v>17.45280263251519</v>
       </c>
       <c r="C12">
-        <v>10.58872846091681</v>
+        <v>8.809503359541718</v>
       </c>
       <c r="D12">
-        <v>9.418818522684298</v>
+        <v>9.735531046247258</v>
       </c>
       <c r="E12">
-        <v>39.60947798920763</v>
+        <v>8.103305469235901</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.18353610773555</v>
+        <v>25.44022870709871</v>
       </c>
       <c r="H12">
-        <v>20.82810955131836</v>
+        <v>4.614396539353137</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.337913496729251</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.893260753608828</v>
       </c>
       <c r="K12">
-        <v>16.4602585401798</v>
+        <v>15.97136603861512</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.188565592306387</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.35620209926639</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.189842755373878</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>16.40331472659242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.58964689334156</v>
+        <v>17.32212522128671</v>
       </c>
       <c r="C13">
-        <v>10.55837404590691</v>
+        <v>9.01118839682427</v>
       </c>
       <c r="D13">
-        <v>9.390595788991298</v>
+        <v>9.263352000292361</v>
       </c>
       <c r="E13">
-        <v>39.48017076858214</v>
+        <v>7.61244683864446</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>79.97410499576905</v>
+        <v>24.18330330063475</v>
       </c>
       <c r="H13">
-        <v>20.78559622121298</v>
+        <v>5.939899332887603</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.370783900498184</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.687668968261548</v>
       </c>
       <c r="K13">
-        <v>16.41247252163267</v>
+        <v>15.55190723462834</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.253100100826441</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.38048188985071</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.671549859670528</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.88586422235713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.40480627356392</v>
+        <v>17.11198741043782</v>
       </c>
       <c r="C14">
-        <v>10.45919876081488</v>
+        <v>9.130140459722178</v>
       </c>
       <c r="D14">
-        <v>9.298258069678466</v>
+        <v>8.903309061040417</v>
       </c>
       <c r="E14">
-        <v>39.05786112189352</v>
+        <v>7.322737646010088</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.29029092543074</v>
+        <v>23.32631632940348</v>
       </c>
       <c r="H14">
-        <v>20.6470171874247</v>
+        <v>6.905171370937356</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.415182782124118</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.560541254767999</v>
       </c>
       <c r="K14">
-        <v>16.2562099024319</v>
+        <v>15.30306918038974</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.319704154634104</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.31220433172572</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.310162761695914</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>15.55051511756401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.29115889163157</v>
+        <v>17.00321033252482</v>
       </c>
       <c r="C15">
-        <v>10.39830624285421</v>
+        <v>9.149355927134465</v>
       </c>
       <c r="D15">
-        <v>9.241467566056746</v>
+        <v>8.802507975069776</v>
       </c>
       <c r="E15">
-        <v>38.79869178152063</v>
+        <v>7.259384868426154</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.87079355667784</v>
+        <v>23.11811304721038</v>
       </c>
       <c r="H15">
-        <v>20.5621813134159</v>
+        <v>7.133487257993167</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.439238183341431</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.535237498644186</v>
       </c>
       <c r="K15">
-        <v>16.16016498500975</v>
+        <v>15.25568044300108</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.335382339984013</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.25564373307955</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.220537884928333</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>15.47620961928185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6331083853556</v>
+        <v>16.46972904150513</v>
       </c>
       <c r="C16">
-        <v>10.0469708241185</v>
+        <v>8.979717720467354</v>
       </c>
       <c r="D16">
-        <v>8.912381602508169</v>
+        <v>8.702921866689591</v>
       </c>
       <c r="E16">
-        <v>37.30503564009184</v>
+        <v>7.264299507048734</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.45637692115673</v>
+        <v>23.2447482487462</v>
       </c>
       <c r="H16">
-        <v>20.07663921067588</v>
+        <v>6.962035767747351</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.537335417460685</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.607219834374899</v>
       </c>
       <c r="K16">
-        <v>15.60451168253343</v>
+        <v>15.40798263726136</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.287503808540953</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.85141548787247</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.190190955017627</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>15.5920893737132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.22311959455811</v>
+        <v>16.1682607189267</v>
       </c>
       <c r="C17">
-        <v>9.829140971575114</v>
+        <v>8.782450638370994</v>
       </c>
       <c r="D17">
-        <v>8.707142017731877</v>
+        <v>8.82207192375644</v>
       </c>
       <c r="E17">
-        <v>36.38024470485771</v>
+        <v>7.411376126414559</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.96530032156497</v>
+        <v>23.79295705110755</v>
       </c>
       <c r="H17">
-        <v>19.77921874685829</v>
+        <v>6.292482213091565</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.589713992934822</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.72883753324767</v>
       </c>
       <c r="K17">
-        <v>15.25873119539149</v>
+        <v>15.65206537786213</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.210646458384429</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.57282450224383</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.358895807650174</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15.85617920336904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.98489972984014</v>
+        <v>16.04565200973834</v>
       </c>
       <c r="C18">
-        <v>9.702944363025178</v>
+        <v>8.534333792188006</v>
       </c>
       <c r="D18">
-        <v>8.587820475438289</v>
+        <v>9.145753811842617</v>
       </c>
       <c r="E18">
-        <v>35.84486675876126</v>
+        <v>7.753513875799991</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>74.10382879669666</v>
+        <v>24.80586066055022</v>
       </c>
       <c r="H18">
-        <v>19.60827741358261</v>
+        <v>5.167530118640836</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.59777735233313</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.914472616021319</v>
       </c>
       <c r="K18">
-        <v>15.05796538565035</v>
+        <v>16.02819737244064</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.127080336667008</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.37297336230456</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.729773975481387</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16.29605529463478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.90382126178105</v>
+        <v>16.06766845686629</v>
       </c>
       <c r="C19">
-        <v>9.660055094870101</v>
+        <v>8.307895233798854</v>
       </c>
       <c r="D19">
-        <v>8.547197983776627</v>
+        <v>9.603343028141346</v>
       </c>
       <c r="E19">
-        <v>35.66297145751064</v>
+        <v>8.289699765633619</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.81147286811314</v>
+        <v>26.07522288207452</v>
       </c>
       <c r="H19">
-        <v>19.5504185922644</v>
+        <v>3.910523623667848</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.584038453713627</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.1324659075693</v>
       </c>
       <c r="K19">
-        <v>14.98965919426432</v>
+        <v>16.48015585186435</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.086165292439658</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.26380304135646</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.257930756382882</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16.83070642758176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.26701054380262</v>
+        <v>16.50969577894278</v>
       </c>
       <c r="C20">
-        <v>9.852421822962796</v>
+        <v>8.098905676665398</v>
       </c>
       <c r="D20">
-        <v>8.729121022593585</v>
+        <v>10.41510572674227</v>
       </c>
       <c r="E20">
-        <v>36.47904120795837</v>
+        <v>9.302314814735416</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>75.12442172835955</v>
+        <v>28.11766183905909</v>
       </c>
       <c r="H20">
-        <v>19.81086580252692</v>
+        <v>2.754220040938759</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.480087823815332</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.45221143450794</v>
       </c>
       <c r="K20">
-        <v>15.29573318688817</v>
+        <v>17.16765103322288</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.156342446643533</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.40088743048754</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.169640979405052</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17.65707703958794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.45918688104918</v>
+        <v>17.5121387353613</v>
       </c>
       <c r="C21">
-        <v>10.48835870773589</v>
+        <v>8.306537361598773</v>
       </c>
       <c r="D21">
-        <v>9.325427780798346</v>
+        <v>10.83175574160884</v>
       </c>
       <c r="E21">
-        <v>39.18200406281762</v>
+        <v>9.603996069450883</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.49127580299667</v>
+        <v>28.62716785832757</v>
       </c>
       <c r="H21">
-        <v>20.68771095297605</v>
+        <v>2.491804851955301</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.29418948969384</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.45213767976242</v>
       </c>
       <c r="K21">
-        <v>16.30217618448357</v>
+        <v>17.16715288335396</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.226966262986339</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.11122544804554</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.507111383311621</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.76838783258694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.2189720701173</v>
+        <v>18.13766747775571</v>
       </c>
       <c r="C22">
-        <v>10.89732589646984</v>
+        <v>8.437275250006159</v>
       </c>
       <c r="D22">
-        <v>9.704700639741382</v>
+        <v>11.06935957546619</v>
       </c>
       <c r="E22">
-        <v>40.9255456283128</v>
+        <v>9.754526688684345</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.31596768130606</v>
+        <v>28.92230111847029</v>
       </c>
       <c r="H22">
-        <v>21.26281280062999</v>
+        <v>2.335306494071534</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.167384037299018</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.44705833897066</v>
       </c>
       <c r="K22">
-        <v>16.94497509167127</v>
+        <v>17.15670150383283</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.267628144045637</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.55571923343682</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.67916800492703</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.82741357561969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.81512452379713</v>
+        <v>17.81265093887983</v>
       </c>
       <c r="C23">
-        <v>10.67958465943967</v>
+        <v>8.353254172587429</v>
       </c>
       <c r="D23">
-        <v>9.503184787247831</v>
+        <v>10.94627966485119</v>
       </c>
       <c r="E23">
-        <v>39.99666726665929</v>
+        <v>9.679602752225412</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.81076414542416</v>
+        <v>28.80875983674732</v>
       </c>
       <c r="H23">
-        <v>20.95562885324752</v>
+        <v>2.417607315316291</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.224187574713119</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.45748860633037</v>
       </c>
       <c r="K23">
-        <v>16.60317536356394</v>
+        <v>17.18212440140547</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.246934504123617</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.31531570641759</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.583632334833444</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.8147734035839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.24717529091756</v>
+        <v>16.51300151681084</v>
       </c>
       <c r="C24">
-        <v>9.841899565221043</v>
+        <v>8.053352708912755</v>
       </c>
       <c r="D24">
-        <v>8.719188455805806</v>
+        <v>10.46602286298341</v>
       </c>
       <c r="E24">
-        <v>36.43438692456204</v>
+        <v>9.381899278730131</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>75.05249616854726</v>
+        <v>28.3287546996299</v>
       </c>
       <c r="H24">
-        <v>19.79655802248992</v>
+        <v>2.737700574251153</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.462744097515232</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.49017950386442</v>
       </c>
       <c r="K24">
-        <v>15.2790107474767</v>
+        <v>17.25498684011746</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.165328739718598</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.37502296819696</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.220827014722145</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17.74868443480124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.46307953081588</v>
+        <v>14.98404648267927</v>
       </c>
       <c r="C25">
-        <v>8.903131842955785</v>
+        <v>7.719011166807093</v>
       </c>
       <c r="D25">
-        <v>7.82446424104896</v>
+        <v>9.931524100252968</v>
       </c>
       <c r="E25">
-        <v>32.45650076898733</v>
+        <v>9.04972907642186</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.69376723813178</v>
+        <v>27.85964987840051</v>
       </c>
       <c r="H25">
-        <v>18.55111550712027</v>
+        <v>3.098395212466543</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.73372041767136</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.53822403913834</v>
       </c>
       <c r="K25">
-        <v>13.77802501133214</v>
+        <v>17.35346993702646</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.073426433650612</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.28084429720864</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.814804855620376</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>17.70502535298756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.78979223371277</v>
+        <v>13.72803135862984</v>
       </c>
       <c r="C2">
-        <v>7.426731378577764</v>
+        <v>7.185237010067985</v>
       </c>
       <c r="D2">
-        <v>9.535544716453623</v>
+        <v>9.465405132685607</v>
       </c>
       <c r="E2">
-        <v>8.810445336622383</v>
+        <v>8.692379750249883</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.67008597756443</v>
+        <v>26.13321510606429</v>
       </c>
       <c r="H2">
-        <v>3.375276048842695</v>
+        <v>3.215266108427943</v>
       </c>
       <c r="I2">
-        <v>3.921825900526087</v>
+        <v>3.719444024562248</v>
       </c>
       <c r="J2">
-        <v>10.60376953607553</v>
+        <v>10.45316978093596</v>
       </c>
       <c r="K2">
-        <v>17.49198813337531</v>
+        <v>16.69420886804086</v>
       </c>
       <c r="L2">
-        <v>5.004813308628829</v>
+        <v>13.14655423924656</v>
       </c>
       <c r="M2">
-        <v>11.39306985859304</v>
+        <v>11.51711473765059</v>
       </c>
       <c r="N2">
-        <v>7.4938196785131</v>
+        <v>4.967858793755504</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.52116424865806</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.697747510275815</v>
       </c>
       <c r="Q2">
-        <v>17.74378662880303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.11251217695246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.91288924939721</v>
+        <v>12.84737077727681</v>
       </c>
       <c r="C3">
-        <v>7.244182416441657</v>
+        <v>6.922470495652601</v>
       </c>
       <c r="D3">
-        <v>9.256405603632684</v>
+        <v>9.19570859842503</v>
       </c>
       <c r="E3">
-        <v>8.635786915352098</v>
+        <v>8.533861995728463</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.49999756989065</v>
+        <v>26.10616218721938</v>
       </c>
       <c r="H3">
-        <v>3.573355096581869</v>
+        <v>3.400462356583949</v>
       </c>
       <c r="I3">
-        <v>4.069636781684059</v>
+        <v>3.851412740643489</v>
       </c>
       <c r="J3">
-        <v>10.64288526267643</v>
+        <v>10.4693638952334</v>
       </c>
       <c r="K3">
-        <v>17.5663878670595</v>
+        <v>16.80014055266048</v>
       </c>
       <c r="L3">
-        <v>4.954607314587975</v>
+        <v>13.28821430462799</v>
       </c>
       <c r="M3">
-        <v>10.75729423313814</v>
+        <v>11.57258654677076</v>
       </c>
       <c r="N3">
-        <v>7.276478957371349</v>
+        <v>4.920738462111787</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.87294364353827</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.477599218725365</v>
       </c>
       <c r="Q3">
-        <v>17.75509719107821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17.15843012101224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.34239178158486</v>
+        <v>12.27278177863209</v>
       </c>
       <c r="C4">
-        <v>7.130145401104275</v>
+        <v>6.75819890658051</v>
       </c>
       <c r="D4">
-        <v>9.082602152438126</v>
+        <v>9.0278096344459</v>
       </c>
       <c r="E4">
-        <v>8.526137493602066</v>
+        <v>8.434286511811026</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.40494406002346</v>
+        <v>26.10042905012642</v>
       </c>
       <c r="H4">
-        <v>3.699570489376996</v>
+        <v>3.518510549919687</v>
       </c>
       <c r="I4">
-        <v>4.164417451532136</v>
+        <v>3.936306984111339</v>
       </c>
       <c r="J4">
-        <v>10.6694348582105</v>
+        <v>10.48022428236392</v>
       </c>
       <c r="K4">
-        <v>17.61556443043824</v>
+        <v>16.86766333734839</v>
       </c>
       <c r="L4">
-        <v>4.922575272091464</v>
+        <v>13.37652111071558</v>
       </c>
       <c r="M4">
-        <v>10.34694363365202</v>
+        <v>11.62188678738278</v>
       </c>
       <c r="N4">
-        <v>7.14067974990953</v>
+        <v>4.890665133028894</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.454663550543</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.340394610948309</v>
       </c>
       <c r="Q4">
-        <v>17.76726607071339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.19088438955155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09977147390259</v>
+        <v>12.02794648046892</v>
       </c>
       <c r="C5">
-        <v>7.087095066792609</v>
+        <v>6.695400787642813</v>
       </c>
       <c r="D5">
-        <v>9.010240802336426</v>
+        <v>8.95790450612205</v>
       </c>
       <c r="E5">
-        <v>8.479359103308532</v>
+        <v>8.391703214243613</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.35618056534748</v>
+        <v>26.08886664645167</v>
       </c>
       <c r="H5">
-        <v>3.752481867804121</v>
+        <v>3.568016659945836</v>
       </c>
       <c r="I5">
-        <v>4.206454186015312</v>
+        <v>3.97467842814042</v>
       </c>
       <c r="J5">
-        <v>10.67877086346903</v>
+        <v>10.48277664678998</v>
       </c>
       <c r="K5">
-        <v>17.63116259931649</v>
+        <v>16.89077599033574</v>
       </c>
       <c r="L5">
-        <v>4.908920502822264</v>
+        <v>13.40791118700707</v>
       </c>
       <c r="M5">
-        <v>10.17639619046226</v>
+        <v>11.64311368621186</v>
       </c>
       <c r="N5">
-        <v>7.086019432952277</v>
+        <v>4.877847777288976</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.28079268940833</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.285203059584966</v>
       </c>
       <c r="Q5">
-        <v>17.76833259775572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.20016940046195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.05642663219515</v>
+        <v>11.98414281060301</v>
       </c>
       <c r="C6">
-        <v>7.084717256044369</v>
+        <v>6.690868208685689</v>
       </c>
       <c r="D6">
-        <v>8.996944715136957</v>
+        <v>8.945051544993502</v>
       </c>
       <c r="E6">
-        <v>8.46969436473772</v>
+        <v>8.382803757054351</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.33312563929382</v>
+        <v>26.07260880060428</v>
       </c>
       <c r="H6">
-        <v>3.76171477606326</v>
+        <v>3.576666729623973</v>
       </c>
       <c r="I6">
-        <v>4.216552247562014</v>
+        <v>3.984698350066695</v>
       </c>
       <c r="J6">
-        <v>10.67778147142823</v>
+        <v>10.48064621274543</v>
       </c>
       <c r="K6">
-        <v>17.6273258484673</v>
+        <v>16.8885261789584</v>
       </c>
       <c r="L6">
-        <v>4.906274869180857</v>
+        <v>13.40712725453818</v>
       </c>
       <c r="M6">
-        <v>10.14977060654467</v>
+        <v>11.64361781322617</v>
       </c>
       <c r="N6">
-        <v>7.078394977177117</v>
+        <v>4.875370512069269</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.25357462400133</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.277441608780107</v>
       </c>
       <c r="Q6">
-        <v>17.76226092368444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.19568624485518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.33227819747577</v>
+        <v>12.26331608945397</v>
       </c>
       <c r="C7">
-        <v>7.142614471643367</v>
+        <v>6.770290755296339</v>
       </c>
       <c r="D7">
-        <v>9.078246325160674</v>
+        <v>9.023843859699118</v>
       </c>
       <c r="E7">
-        <v>8.520465676648303</v>
+        <v>8.429057651037123</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.36318918388043</v>
+        <v>26.11947824782435</v>
       </c>
       <c r="H7">
-        <v>3.701286581048073</v>
+        <v>3.520688201093499</v>
       </c>
       <c r="I7">
-        <v>4.173058946189927</v>
+        <v>3.946782542832938</v>
       </c>
       <c r="J7">
-        <v>10.66253919918683</v>
+        <v>10.44203719619234</v>
       </c>
       <c r="K7">
-        <v>17.59810974211235</v>
+        <v>16.84456145574184</v>
       </c>
       <c r="L7">
-        <v>4.921425082175106</v>
+        <v>13.35444911577336</v>
       </c>
       <c r="M7">
-        <v>10.35000470314371</v>
+        <v>11.60917209432436</v>
       </c>
       <c r="N7">
-        <v>7.143954416473099</v>
+        <v>4.889432912419638</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.45637796060259</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.342834391329833</v>
       </c>
       <c r="Q7">
-        <v>17.7500435381787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.16489489219255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.48566611357584</v>
+        <v>13.42534682062528</v>
       </c>
       <c r="C8">
-        <v>7.381253396026853</v>
+        <v>7.106091000817583</v>
       </c>
       <c r="D8">
-        <v>9.435556240955444</v>
+        <v>9.369663148259837</v>
       </c>
       <c r="E8">
-        <v>8.744283061120925</v>
+        <v>8.632754978509958</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.55584975775739</v>
+        <v>26.26571362023727</v>
       </c>
       <c r="H8">
-        <v>3.443876906088434</v>
+        <v>3.281096503051774</v>
       </c>
       <c r="I8">
-        <v>3.982177255406182</v>
+        <v>3.777635487950505</v>
       </c>
       <c r="J8">
-        <v>10.60752237498781</v>
+        <v>10.34783157429312</v>
       </c>
       <c r="K8">
-        <v>17.49370079174078</v>
+        <v>16.68647177907058</v>
       </c>
       <c r="L8">
-        <v>4.986534501912606</v>
+        <v>13.15618506809399</v>
       </c>
       <c r="M8">
-        <v>11.18469449494709</v>
+        <v>11.50536466908638</v>
       </c>
       <c r="N8">
-        <v>7.424535891848043</v>
+        <v>4.950223719220171</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.30476107029153</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.625072871280349</v>
       </c>
       <c r="Q8">
-        <v>17.72399505670891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>17.07446295234016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.52669439156657</v>
+        <v>15.44455459235692</v>
       </c>
       <c r="C9">
-        <v>7.810437119907367</v>
+        <v>7.72278438497265</v>
       </c>
       <c r="D9">
-        <v>10.1189837744178</v>
+        <v>10.03042148777122</v>
       </c>
       <c r="E9">
-        <v>9.171299492650363</v>
+        <v>9.020739430269437</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.08199714379982</v>
+        <v>26.49637181566868</v>
       </c>
       <c r="H9">
-        <v>2.973248712199598</v>
+        <v>2.841541551132559</v>
       </c>
       <c r="I9">
-        <v>3.626186394873513</v>
+        <v>3.45906513524496</v>
       </c>
       <c r="J9">
-        <v>10.53269829174696</v>
+        <v>10.29349062018965</v>
       </c>
       <c r="K9">
-        <v>17.34885303239912</v>
+        <v>16.45036388849118</v>
       </c>
       <c r="L9">
-        <v>5.106439280264898</v>
+        <v>12.8266739927664</v>
       </c>
       <c r="M9">
-        <v>12.65188505589561</v>
+        <v>11.45702089285435</v>
       </c>
       <c r="N9">
-        <v>7.946844291816836</v>
+        <v>5.062634419459545</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.80067665779425</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.155650622152223</v>
       </c>
       <c r="Q9">
-        <v>17.74630456981351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.99621905551162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.86905937727199</v>
+        <v>16.75736843675275</v>
       </c>
       <c r="C10">
-        <v>8.145981643593204</v>
+        <v>8.17311564862081</v>
       </c>
       <c r="D10">
-        <v>10.53530396205002</v>
+        <v>10.43393576866867</v>
       </c>
       <c r="E10">
-        <v>9.372630752254581</v>
+        <v>9.199620491547694</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.31005568348217</v>
+        <v>26.8831222550174</v>
       </c>
       <c r="H10">
-        <v>2.674808470636015</v>
+        <v>2.567050475615593</v>
       </c>
       <c r="I10">
-        <v>3.393120050158991</v>
+        <v>3.255344119084689</v>
       </c>
       <c r="J10">
-        <v>10.45539441505608</v>
+        <v>10.05968152978719</v>
       </c>
       <c r="K10">
-        <v>17.18148958275133</v>
+        <v>16.1865523926037</v>
       </c>
       <c r="L10">
-        <v>5.17777133550018</v>
+        <v>12.51482297299753</v>
       </c>
       <c r="M10">
-        <v>13.63936166184958</v>
+        <v>11.41503481266704</v>
       </c>
       <c r="N10">
-        <v>8.237675610820903</v>
+        <v>5.129943593816393</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.79994774019164</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.44846468129257</v>
       </c>
       <c r="Q10">
-        <v>17.70282172391106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.83159942102998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.32881580234191</v>
+        <v>17.23348339088117</v>
       </c>
       <c r="C11">
-        <v>8.542927186308669</v>
+        <v>8.581603751888107</v>
       </c>
       <c r="D11">
-        <v>10.14951790543344</v>
+        <v>10.05766864768898</v>
       </c>
       <c r="E11">
-        <v>8.669405265514715</v>
+        <v>8.517721294791897</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.74905139580023</v>
+        <v>26.14204754502903</v>
       </c>
       <c r="H11">
-        <v>3.415802241588393</v>
+        <v>3.339916012716645</v>
       </c>
       <c r="I11">
-        <v>3.346750460627205</v>
+        <v>3.223273408020122</v>
       </c>
       <c r="J11">
-        <v>10.13498564470152</v>
+        <v>9.49313927385778</v>
       </c>
       <c r="K11">
-        <v>16.48216314511584</v>
+        <v>15.4996603929989</v>
       </c>
       <c r="L11">
-        <v>5.158763491696281</v>
+        <v>11.97740305360156</v>
       </c>
       <c r="M11">
-        <v>14.13958542722021</v>
+        <v>10.93954492124502</v>
       </c>
       <c r="N11">
-        <v>7.700379237498031</v>
+        <v>5.122677372686936</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.27939314680214</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.892074258784902</v>
       </c>
       <c r="Q11">
-        <v>16.97767392739128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.05888316660647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.45280263251519</v>
+        <v>17.37509948469079</v>
       </c>
       <c r="C12">
-        <v>8.809503359541718</v>
+        <v>8.83035607365742</v>
       </c>
       <c r="D12">
-        <v>9.735531046247258</v>
+        <v>9.653215867332994</v>
       </c>
       <c r="E12">
-        <v>8.103305469235901</v>
+        <v>7.972624783851141</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.44022870709871</v>
+        <v>25.25519492415799</v>
       </c>
       <c r="H12">
-        <v>4.614396539353137</v>
+        <v>4.559314432624221</v>
       </c>
       <c r="I12">
-        <v>3.337913496729251</v>
+        <v>3.216786209530241</v>
       </c>
       <c r="J12">
-        <v>9.893260753608828</v>
+        <v>9.212508022671953</v>
       </c>
       <c r="K12">
-        <v>15.97136603861512</v>
+        <v>15.04601271756641</v>
       </c>
       <c r="L12">
-        <v>5.188565592306387</v>
+        <v>11.65400215550822</v>
       </c>
       <c r="M12">
-        <v>14.35620209926639</v>
+        <v>10.58690774529571</v>
       </c>
       <c r="N12">
-        <v>7.189842755373878</v>
+        <v>5.161501424313846</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.47887224708409</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.367425416864521</v>
       </c>
       <c r="Q12">
-        <v>16.40331472659242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.50741075063531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.32212522128671</v>
+        <v>17.26309828449363</v>
       </c>
       <c r="C13">
-        <v>9.01118839682427</v>
+        <v>9.004955610960282</v>
       </c>
       <c r="D13">
-        <v>9.263352000292361</v>
+        <v>9.190659849059852</v>
       </c>
       <c r="E13">
-        <v>7.61244683864446</v>
+        <v>7.503967110894752</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.18330330063475</v>
+        <v>23.99556872376386</v>
       </c>
       <c r="H13">
-        <v>5.939899332887603</v>
+        <v>5.894490192977293</v>
       </c>
       <c r="I13">
-        <v>3.370783900498184</v>
+        <v>3.244765257098284</v>
       </c>
       <c r="J13">
-        <v>9.687668968261548</v>
+        <v>9.119414753256054</v>
       </c>
       <c r="K13">
-        <v>15.55190723462834</v>
+        <v>14.72853865136678</v>
       </c>
       <c r="L13">
-        <v>5.253100100826441</v>
+        <v>11.44540683083825</v>
       </c>
       <c r="M13">
-        <v>14.38048188985071</v>
+        <v>10.30723243763198</v>
       </c>
       <c r="N13">
-        <v>6.671549859670528</v>
+        <v>5.234124718847974</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.48937288501234</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.839220546774921</v>
       </c>
       <c r="Q13">
-        <v>15.88586422235713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.08513824014783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.11198741043782</v>
+        <v>17.06685571754753</v>
       </c>
       <c r="C14">
-        <v>9.130140459722178</v>
+        <v>9.100997042319037</v>
       </c>
       <c r="D14">
-        <v>8.903309061040417</v>
+        <v>8.837505480586357</v>
       </c>
       <c r="E14">
-        <v>7.322737646010088</v>
+        <v>7.230559275680484</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.32631632940348</v>
+        <v>22.96561680094214</v>
       </c>
       <c r="H14">
-        <v>6.905171370937356</v>
+        <v>6.863183666940301</v>
       </c>
       <c r="I14">
-        <v>3.415182782124118</v>
+        <v>3.283046592891631</v>
       </c>
       <c r="J14">
-        <v>9.560541254767999</v>
+        <v>9.118631028125321</v>
       </c>
       <c r="K14">
-        <v>15.30306918038974</v>
+        <v>14.56459025746362</v>
       </c>
       <c r="L14">
-        <v>5.319704154634104</v>
+        <v>11.34279660945475</v>
       </c>
       <c r="M14">
-        <v>14.31220433172572</v>
+        <v>10.14758611384364</v>
       </c>
       <c r="N14">
-        <v>6.310162761695914</v>
+        <v>5.30582407199842</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.4126313866783</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.472788752597118</v>
       </c>
       <c r="Q14">
-        <v>15.55051511756401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.84326851623039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.00321033252482</v>
+        <v>16.96190381494174</v>
       </c>
       <c r="C15">
-        <v>9.149355927134465</v>
+        <v>9.114048796401793</v>
       </c>
       <c r="D15">
-        <v>8.802507975069776</v>
+        <v>8.738527597425664</v>
       </c>
       <c r="E15">
-        <v>7.259384868426154</v>
+        <v>7.171731981080957</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.11811304721038</v>
+        <v>22.64816607187513</v>
       </c>
       <c r="H15">
-        <v>7.133487257993167</v>
+        <v>7.091439076844052</v>
       </c>
       <c r="I15">
-        <v>3.439238183341431</v>
+        <v>3.304779160639552</v>
       </c>
       <c r="J15">
-        <v>9.535237498644186</v>
+        <v>9.14482125832334</v>
       </c>
       <c r="K15">
-        <v>15.25568044300108</v>
+        <v>14.54411544864168</v>
       </c>
       <c r="L15">
-        <v>5.335382339984013</v>
+        <v>11.33150814777157</v>
       </c>
       <c r="M15">
-        <v>14.25564373307955</v>
+        <v>10.12051811984168</v>
       </c>
       <c r="N15">
-        <v>6.220537884928333</v>
+        <v>5.322870483767678</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.35455619063195</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.382660263767197</v>
       </c>
       <c r="Q15">
-        <v>15.47620961928185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.80318741580204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.46972904150513</v>
+        <v>16.43249677736475</v>
       </c>
       <c r="C16">
-        <v>8.979717720467354</v>
+        <v>8.933809751837893</v>
       </c>
       <c r="D16">
-        <v>8.702921866689591</v>
+        <v>8.640393740883468</v>
       </c>
       <c r="E16">
-        <v>7.264299507048734</v>
+        <v>7.181588971940204</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.2447482487462</v>
+        <v>22.2416881916588</v>
       </c>
       <c r="H16">
-        <v>6.962035767747351</v>
+        <v>6.911737655462741</v>
       </c>
       <c r="I16">
-        <v>3.537335417460685</v>
+        <v>3.389217619082121</v>
       </c>
       <c r="J16">
-        <v>9.607219834374899</v>
+        <v>9.409159130845982</v>
       </c>
       <c r="K16">
-        <v>15.40798263726136</v>
+        <v>14.7488949002652</v>
       </c>
       <c r="L16">
-        <v>5.287503808540953</v>
+        <v>11.48016130356741</v>
       </c>
       <c r="M16">
-        <v>13.85141548787247</v>
+        <v>10.24873659350081</v>
       </c>
       <c r="N16">
-        <v>6.190190955017627</v>
+        <v>5.276890838424229</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.95527123620535</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.358577629606946</v>
       </c>
       <c r="Q16">
-        <v>15.5920893737132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>15.01438759306227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.1682607189267</v>
+        <v>16.12749468651318</v>
       </c>
       <c r="C17">
-        <v>8.782450638370994</v>
+        <v>8.735398946261382</v>
       </c>
       <c r="D17">
-        <v>8.82207192375644</v>
+        <v>8.757332415450017</v>
       </c>
       <c r="E17">
-        <v>7.411376126414559</v>
+        <v>7.32340501841851</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.79295705110755</v>
+        <v>22.54115858193641</v>
       </c>
       <c r="H17">
-        <v>6.292482213091565</v>
+        <v>6.232508043086472</v>
       </c>
       <c r="I17">
-        <v>3.589713992934822</v>
+        <v>3.434921027805837</v>
       </c>
       <c r="J17">
-        <v>9.72883753324767</v>
+        <v>9.608176172344452</v>
       </c>
       <c r="K17">
-        <v>15.65206537786213</v>
+        <v>14.98849957064026</v>
       </c>
       <c r="L17">
-        <v>5.210646458384429</v>
+        <v>11.65715986643948</v>
       </c>
       <c r="M17">
-        <v>13.57282450224383</v>
+        <v>10.42013861769553</v>
       </c>
       <c r="N17">
-        <v>6.358895807650174</v>
+        <v>5.198384894981421</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.68388482064534</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.534006857123149</v>
       </c>
       <c r="Q17">
-        <v>15.85617920336904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.29577997751884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.04565200973834</v>
+        <v>15.99274769569781</v>
       </c>
       <c r="C18">
-        <v>8.534333792188006</v>
+        <v>8.496113678714662</v>
       </c>
       <c r="D18">
-        <v>9.145753811842617</v>
+        <v>9.074574103588674</v>
       </c>
       <c r="E18">
-        <v>7.753513875799991</v>
+        <v>7.649997617837978</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.80586066055022</v>
+        <v>23.37526489310878</v>
       </c>
       <c r="H18">
-        <v>5.167530118640836</v>
+        <v>5.092936528825683</v>
       </c>
       <c r="I18">
-        <v>3.59777735233313</v>
+        <v>3.439522768311011</v>
       </c>
       <c r="J18">
-        <v>9.914472616021319</v>
+        <v>9.811870315493795</v>
       </c>
       <c r="K18">
-        <v>16.02819737244064</v>
+        <v>15.31910252257074</v>
       </c>
       <c r="L18">
-        <v>5.127080336667008</v>
+        <v>11.90687620124513</v>
       </c>
       <c r="M18">
-        <v>13.37297336230456</v>
+        <v>10.66741241328135</v>
       </c>
       <c r="N18">
-        <v>6.729773975481387</v>
+        <v>5.109379159409403</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.49582352140626</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.914020370746132</v>
       </c>
       <c r="Q18">
-        <v>16.29605529463478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.70496071451267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.06766845686629</v>
+        <v>15.99647330279067</v>
       </c>
       <c r="C19">
-        <v>8.307895233798854</v>
+        <v>8.286750656558537</v>
       </c>
       <c r="D19">
-        <v>9.603343028141346</v>
+        <v>9.522602895819523</v>
       </c>
       <c r="E19">
-        <v>8.289699765633619</v>
+        <v>8.163317640630813</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.07522288207452</v>
+        <v>24.48541922875409</v>
       </c>
       <c r="H19">
-        <v>3.910523623667848</v>
+        <v>3.814476242704724</v>
       </c>
       <c r="I19">
-        <v>3.584038453713627</v>
+        <v>3.428583755412658</v>
       </c>
       <c r="J19">
-        <v>10.1324659075693</v>
+        <v>10.01421159418403</v>
       </c>
       <c r="K19">
-        <v>16.48015585186435</v>
+        <v>15.6980544642269</v>
       </c>
       <c r="L19">
-        <v>5.086165292439658</v>
+        <v>12.19564214774632</v>
       </c>
       <c r="M19">
-        <v>13.26380304135646</v>
+        <v>10.95603744889933</v>
       </c>
       <c r="N19">
-        <v>7.257930756382882</v>
+        <v>5.059180773615013</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.40150292449472</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.453225388245269</v>
       </c>
       <c r="Q19">
-        <v>16.83070642758176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>16.1786260683621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.50969577894278</v>
+        <v>16.40381646650382</v>
       </c>
       <c r="C20">
-        <v>8.098905676665398</v>
+        <v>8.114949468034451</v>
       </c>
       <c r="D20">
-        <v>10.41510572674227</v>
+        <v>10.31640110840681</v>
       </c>
       <c r="E20">
-        <v>9.302314814735416</v>
+        <v>9.134835402885502</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.11766183905909</v>
+        <v>26.44128007773254</v>
       </c>
       <c r="H20">
-        <v>2.754220040938759</v>
+        <v>2.638571907955563</v>
       </c>
       <c r="I20">
-        <v>3.480087823815332</v>
+        <v>3.33834957197468</v>
       </c>
       <c r="J20">
-        <v>10.45221143450794</v>
+        <v>10.2032947022697</v>
       </c>
       <c r="K20">
-        <v>17.16765103322288</v>
+        <v>16.22662746373082</v>
       </c>
       <c r="L20">
-        <v>5.156342446643533</v>
+        <v>12.57416071099872</v>
       </c>
       <c r="M20">
-        <v>13.40088743048754</v>
+        <v>11.39982287820063</v>
       </c>
       <c r="N20">
-        <v>8.169640979405052</v>
+        <v>5.110355524581386</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.56147357681631</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.381609949662904</v>
       </c>
       <c r="Q20">
-        <v>17.65707703958794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.85441579635241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.5121387353613</v>
+        <v>17.39223079327887</v>
       </c>
       <c r="C21">
-        <v>8.306537361598773</v>
+        <v>8.355301547482586</v>
       </c>
       <c r="D21">
-        <v>10.83175574160884</v>
+        <v>10.72648838331738</v>
       </c>
       <c r="E21">
-        <v>9.603996069450883</v>
+        <v>9.420307177732298</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.62716785832757</v>
+        <v>28.18920179362544</v>
       </c>
       <c r="H21">
-        <v>2.491804851955301</v>
+        <v>2.401766242734866</v>
       </c>
       <c r="I21">
-        <v>3.29418948969384</v>
+        <v>3.181314007174092</v>
       </c>
       <c r="J21">
-        <v>10.45213767976242</v>
+        <v>9.577991123891252</v>
       </c>
       <c r="K21">
-        <v>17.16715288335396</v>
+        <v>16.00878848974933</v>
       </c>
       <c r="L21">
-        <v>5.226966262986339</v>
+        <v>12.3307998205627</v>
       </c>
       <c r="M21">
-        <v>14.11122544804554</v>
+        <v>11.36841587240056</v>
       </c>
       <c r="N21">
-        <v>8.507111383311621</v>
+        <v>5.173128662655131</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.26675996133002</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.712403502588483</v>
       </c>
       <c r="Q21">
-        <v>17.76838783258694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.67974168614731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.13766747775571</v>
+        <v>18.011020451315</v>
       </c>
       <c r="C22">
-        <v>8.437275250006159</v>
+        <v>8.500699846098202</v>
       </c>
       <c r="D22">
-        <v>11.06935957546619</v>
+        <v>10.96122074101514</v>
       </c>
       <c r="E22">
-        <v>9.754526688684345</v>
+        <v>9.56322208993474</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.92230111847029</v>
+        <v>29.43411456361738</v>
       </c>
       <c r="H22">
-        <v>2.335306494071534</v>
+        <v>2.261501817102143</v>
       </c>
       <c r="I22">
-        <v>3.167384037299018</v>
+        <v>3.070643843312959</v>
       </c>
       <c r="J22">
-        <v>10.44705833897066</v>
+        <v>9.196190964812153</v>
       </c>
       <c r="K22">
-        <v>17.15670150383283</v>
+        <v>15.84843889526537</v>
       </c>
       <c r="L22">
-        <v>5.267628144045637</v>
+        <v>12.16276235872522</v>
       </c>
       <c r="M22">
-        <v>14.55571923343682</v>
+        <v>11.34120343385157</v>
       </c>
       <c r="N22">
-        <v>8.67916800492703</v>
+        <v>5.209829612477238</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.70633795617822</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.878858335683603</v>
       </c>
       <c r="Q22">
-        <v>17.82741357561969</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.53938995967929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.81265093887983</v>
+        <v>17.68777891996559</v>
       </c>
       <c r="C23">
-        <v>8.353254172587429</v>
+        <v>8.412915879543638</v>
       </c>
       <c r="D23">
-        <v>10.94627966485119</v>
+        <v>10.83877691488444</v>
       </c>
       <c r="E23">
-        <v>9.679602752225412</v>
+        <v>9.491171421241697</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.80875983674732</v>
+        <v>28.6455544007255</v>
       </c>
       <c r="H23">
-        <v>2.417607315316291</v>
+        <v>2.33435791905796</v>
       </c>
       <c r="I23">
-        <v>3.224187574713119</v>
+        <v>3.11609068456247</v>
       </c>
       <c r="J23">
-        <v>10.45748860633037</v>
+        <v>9.455713731330251</v>
       </c>
       <c r="K23">
-        <v>17.18212440140547</v>
+        <v>15.9686984496786</v>
       </c>
       <c r="L23">
-        <v>5.246934504123617</v>
+        <v>12.27573366600844</v>
       </c>
       <c r="M23">
-        <v>14.31531570641759</v>
+        <v>11.38406052476743</v>
       </c>
       <c r="N23">
-        <v>8.583632334833444</v>
+        <v>5.191323856430643</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.47082765459005</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.787940681287459</v>
       </c>
       <c r="Q23">
-        <v>17.8147734035839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.65642091161143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.51300151681084</v>
+        <v>16.40510666634888</v>
       </c>
       <c r="C24">
-        <v>8.053352708912755</v>
+        <v>8.063949983648834</v>
       </c>
       <c r="D24">
-        <v>10.46602286298341</v>
+        <v>10.3661798574384</v>
       </c>
       <c r="E24">
-        <v>9.381899278730131</v>
+        <v>9.211767161870931</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.3287546996299</v>
+        <v>26.62545899507117</v>
       </c>
       <c r="H24">
-        <v>2.737700574251153</v>
+        <v>2.621964091351929</v>
       </c>
       <c r="I24">
-        <v>3.462744097515232</v>
+        <v>3.317949517049912</v>
       </c>
       <c r="J24">
-        <v>10.49017950386442</v>
+        <v>10.24210206366317</v>
       </c>
       <c r="K24">
-        <v>17.25498684011746</v>
+        <v>16.30364358016935</v>
       </c>
       <c r="L24">
-        <v>5.165328739718598</v>
+        <v>12.63316201853426</v>
       </c>
       <c r="M24">
-        <v>13.37502296819696</v>
+        <v>11.45787476573852</v>
       </c>
       <c r="N24">
-        <v>8.220827014722145</v>
+        <v>5.117828405912124</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.53720748901841</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.434290254845919</v>
       </c>
       <c r="Q24">
-        <v>17.74868443480124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.9389657291247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.98404648267927</v>
+        <v>14.91526794920159</v>
       </c>
       <c r="C25">
-        <v>7.719011166807093</v>
+        <v>7.591303746540974</v>
       </c>
       <c r="D25">
-        <v>9.931524100252968</v>
+        <v>9.8487382749112</v>
       </c>
       <c r="E25">
-        <v>9.04972907642186</v>
+        <v>8.909504793873001</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.85964987840051</v>
+        <v>26.27069730170127</v>
       </c>
       <c r="H25">
-        <v>3.098395212466543</v>
+        <v>2.957754335615354</v>
       </c>
       <c r="I25">
-        <v>3.73372041767136</v>
+        <v>3.558662930960928</v>
       </c>
       <c r="J25">
-        <v>10.53822403913834</v>
+        <v>10.33855257077948</v>
       </c>
       <c r="K25">
-        <v>17.35346993702646</v>
+        <v>16.49244051603733</v>
       </c>
       <c r="L25">
-        <v>5.073426433650612</v>
+        <v>12.89899773242017</v>
       </c>
       <c r="M25">
-        <v>12.28084429720864</v>
+        <v>11.44265929726531</v>
       </c>
       <c r="N25">
-        <v>7.814804855620376</v>
+        <v>5.031955495320264</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.42349926648937</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.021857513162534</v>
       </c>
       <c r="Q25">
-        <v>17.70502535298756</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.99787709917384</v>
       </c>
     </row>
   </sheetData>
